--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1866415.191685365</v>
+        <v>-1867213.436719022</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736549</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5504549011779</v>
+        <v>17.87560458171883</v>
       </c>
       <c r="G8" t="n">
-        <v>135.7293992974318</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="C9" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="D9" t="n">
-        <v>60.36402868517423</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>96.93109718348467</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>60.09378870120881</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>21.94182076836089</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>306.9184284283102</v>
+        <v>251.8247860939213</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>285.9110494305199</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>307.6531870004254</v>
+        <v>307.6531870004255</v>
       </c>
       <c r="F11" t="n">
-        <v>184.6281895270968</v>
+        <v>326.8250030884027</v>
       </c>
       <c r="G11" t="n">
-        <v>328.2706518781362</v>
+        <v>328.2706518781363</v>
       </c>
       <c r="H11" t="n">
-        <v>241.3145567775164</v>
+        <v>241.3145567775165</v>
       </c>
       <c r="I11" t="n">
-        <v>69.10541545958792</v>
+        <v>69.10541545958796</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>91.06038950496061</v>
+        <v>91.0603895049607</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>136.7961284678622</v>
       </c>
       <c r="U11" t="n">
-        <v>169.112797700002</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>250.4248056684894</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>275.7249051464463</v>
       </c>
       <c r="X11" t="n">
-        <v>295.0251633791928</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.4217611753916</v>
+        <v>306.4217611753917</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.41874164113864</v>
       </c>
       <c r="I12" t="n">
-        <v>58.71574796301682</v>
+        <v>58.7157479630168</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>42.98778846128322</v>
+        <v>42.98778846128319</v>
       </c>
       <c r="S12" t="n">
         <v>146.4254034700827</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.53513930300726</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>84.73513414840774</v>
+        <v>84.73513414840784</v>
       </c>
       <c r="D13" t="n">
-        <v>68.35649854598613</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>67.30424840176558</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>52.99548639044106</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>83.82714630647781</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>72.64954213184622</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99855633999319</v>
+        <v>52.99855633999327</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.00703014733507</v>
+        <v>55.00703014733516</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>97.80263553722739</v>
       </c>
       <c r="T13" t="n">
-        <v>146.7279179755283</v>
+        <v>146.7279179755284</v>
       </c>
       <c r="U13" t="n">
-        <v>201.1217307406357</v>
+        <v>201.1217307406358</v>
       </c>
       <c r="V13" t="n">
-        <v>174.9432757026328</v>
+        <v>174.9432757026329</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>200.1101617732462</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>145.7552637690493</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.6301315251169</v>
+        <v>136.630131525117</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>306.9184284283103</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>16.03222135002441</v>
       </c>
       <c r="D14" t="n">
-        <v>285.9110494305199</v>
+        <v>285.91104943052</v>
       </c>
       <c r="E14" t="n">
         <v>307.6531870004255</v>
       </c>
       <c r="F14" t="n">
-        <v>326.8250030884026</v>
+        <v>326.8250030884027</v>
       </c>
       <c r="G14" t="n">
         <v>328.2706518781363</v>
       </c>
       <c r="H14" t="n">
-        <v>241.3145567775164</v>
+        <v>241.3145567775165</v>
       </c>
       <c r="I14" t="n">
-        <v>69.10541545958797</v>
+        <v>69.10541545958796</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.06038950496067</v>
+        <v>91.0603895049607</v>
       </c>
       <c r="T14" t="n">
-        <v>114.1064629274634</v>
+        <v>136.7961284678622</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>169.1127977000021</v>
       </c>
       <c r="V14" t="n">
-        <v>250.4248056684893</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>275.7249051464462</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>295.0251633791929</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>306.4217611753917</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.41874164113864</v>
       </c>
       <c r="I15" t="n">
-        <v>58.71574796301682</v>
+        <v>58.71574796301679</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.98778846128322</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S15" t="n">
         <v>146.4254034700827</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.53513930300731</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>84.73513414840779</v>
+        <v>82.14007305087952</v>
       </c>
       <c r="D16" t="n">
-        <v>68.35649854598618</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>67.77117272995194</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>83.82714630647791</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>55.00703014733513</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>61.89364506732421</v>
+        <v>124.576136815606</v>
       </c>
       <c r="T16" t="n">
-        <v>146.7279179755283</v>
+        <v>146.7279179755284</v>
       </c>
       <c r="U16" t="n">
-        <v>201.1217307406357</v>
+        <v>201.1217307406358</v>
       </c>
       <c r="V16" t="n">
         <v>174.9432757026329</v>
       </c>
       <c r="W16" t="n">
-        <v>200.1101617732461</v>
+        <v>200.1101617732462</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>145.7552637690493</v>
       </c>
       <c r="Y16" t="n">
         <v>136.630131525117</v>
@@ -1844,7 +1844,7 @@
         <v>233.2779296589882</v>
       </c>
       <c r="C17" t="n">
-        <v>221.28924661667</v>
+        <v>221.2892466166699</v>
       </c>
       <c r="D17" t="n">
         <v>212.2705506611979</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.41989073563867</v>
+        <v>17.4198907356386</v>
       </c>
       <c r="T17" t="n">
-        <v>63.15562969854018</v>
+        <v>63.15562969854014</v>
       </c>
       <c r="U17" t="n">
-        <v>95.47229893068007</v>
+        <v>95.47229893068004</v>
       </c>
       <c r="V17" t="n">
         <v>176.7843068991673</v>
       </c>
       <c r="W17" t="n">
-        <v>202.0844063771243</v>
+        <v>202.0844063771251</v>
       </c>
       <c r="X17" t="n">
-        <v>221.3846646098709</v>
+        <v>221.3846646098708</v>
       </c>
       <c r="Y17" t="n">
-        <v>232.7812624060705</v>
+        <v>232.7812624060696</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>96.41874164113864</v>
       </c>
       <c r="I18" t="n">
-        <v>58.71574796301682</v>
+        <v>58.71574796301679</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.98778846128322</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S18" t="n">
         <v>146.4254034700827</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.8946405336853</v>
+        <v>24.89464053368528</v>
       </c>
       <c r="C19" t="n">
-        <v>11.09463537908579</v>
+        <v>11.09463537908576</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35.94935018757376</v>
+        <v>10.18664753715583</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.83638472416918</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>50.93563804628396</v>
+        <v>96.53472542087184</v>
       </c>
       <c r="T19" t="n">
-        <v>73.08741920620632</v>
+        <v>73.08741920620629</v>
       </c>
       <c r="U19" t="n">
         <v>127.4812319713137</v>
@@ -2062,13 +2062,13 @@
         <v>101.3027769333109</v>
       </c>
       <c r="W19" t="n">
-        <v>126.4696630039242</v>
+        <v>126.4696630039241</v>
       </c>
       <c r="X19" t="n">
-        <v>72.11476499972727</v>
+        <v>72.11476499972724</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.98963275579496</v>
+        <v>62.98963275579493</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.41989073563864</v>
+        <v>17.41989073563863</v>
       </c>
       <c r="T20" t="n">
         <v>63.15562969854017</v>
@@ -2178,7 +2178,7 @@
         <v>96.41874164113864</v>
       </c>
       <c r="I21" t="n">
-        <v>58.7157479630168</v>
+        <v>58.71574796301679</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.98778846128319</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S21" t="n">
         <v>146.4254034700827</v>
@@ -2242,7 +2242,7 @@
         <v>11.09463537908579</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>45.5990873745875</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.5347254208715</v>
+        <v>50.93563804628395</v>
       </c>
       <c r="T22" t="n">
         <v>73.08741920620632</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.41989073563864</v>
+        <v>17.41989073563863</v>
       </c>
       <c r="T23" t="n">
         <v>63.15562969854017</v>
@@ -2415,7 +2415,7 @@
         <v>96.41874164113864</v>
       </c>
       <c r="I24" t="n">
-        <v>58.7157479630168</v>
+        <v>58.71574796301679</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.98778846128319</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S24" t="n">
         <v>146.4254034700827</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.93563804628395</v>
+        <v>96.53472542087161</v>
       </c>
       <c r="T25" t="n">
         <v>73.08741920620632</v>
       </c>
       <c r="U25" t="n">
-        <v>173.0803193459012</v>
+        <v>127.4812319713137</v>
       </c>
       <c r="V25" t="n">
         <v>101.3027769333109</v>
@@ -2570,10 +2570,10 @@
         <v>307.9182623317531</v>
       </c>
       <c r="H26" t="n">
-        <v>220.9621672311332</v>
+        <v>220.9621672311333</v>
       </c>
       <c r="I26" t="n">
-        <v>48.75302591320475</v>
+        <v>48.75302591320472</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.70799995857749</v>
+        <v>70.70799995857745</v>
       </c>
       <c r="T26" t="n">
         <v>116.443738921479</v>
@@ -2652,7 +2652,7 @@
         <v>96.41874164113864</v>
       </c>
       <c r="I27" t="n">
-        <v>58.7157479630168</v>
+        <v>58.71574796301679</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.98778846128319</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S27" t="n">
         <v>146.4254034700827</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.18274975662415</v>
+        <v>78.18274975662412</v>
       </c>
       <c r="C28" t="n">
-        <v>64.38274460202463</v>
+        <v>64.3827446020246</v>
       </c>
       <c r="D28" t="n">
-        <v>48.00410899960302</v>
+        <v>48.00410899960299</v>
       </c>
       <c r="E28" t="n">
-        <v>46.95185885538247</v>
+        <v>46.95185885538244</v>
       </c>
       <c r="F28" t="n">
-        <v>47.41878318356878</v>
+        <v>47.41878318356875</v>
       </c>
       <c r="G28" t="n">
-        <v>63.4747567600947</v>
+        <v>63.47475676009468</v>
       </c>
       <c r="H28" t="n">
-        <v>52.2971525854631</v>
+        <v>52.29715258546308</v>
       </c>
       <c r="I28" t="n">
-        <v>32.64616679361006</v>
+        <v>32.64616679361002</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65464060095196</v>
+        <v>34.65464060095194</v>
       </c>
       <c r="S28" t="n">
         <v>104.2237472692228</v>
       </c>
       <c r="T28" t="n">
-        <v>126.3755284291452</v>
+        <v>126.3755284291451</v>
       </c>
       <c r="U28" t="n">
-        <v>180.7693411942526</v>
+        <v>180.7693411942525</v>
       </c>
       <c r="V28" t="n">
         <v>154.5908861562497</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>286.5660388819271</v>
+        <v>286.5660388819269</v>
       </c>
       <c r="C29" t="n">
-        <v>274.5773558396088</v>
+        <v>274.5773558396087</v>
       </c>
       <c r="D29" t="n">
-        <v>265.5586598841368</v>
+        <v>265.5586598841367</v>
       </c>
       <c r="E29" t="n">
         <v>287.3007974540423</v>
@@ -2804,13 +2804,13 @@
         <v>306.4726135420194</v>
       </c>
       <c r="G29" t="n">
-        <v>307.9182623317531</v>
+        <v>307.918262331753</v>
       </c>
       <c r="H29" t="n">
         <v>220.9621672311332</v>
       </c>
       <c r="I29" t="n">
-        <v>48.75302591320471</v>
+        <v>48.75302591320465</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.70799995857743</v>
+        <v>70.70799995857737</v>
       </c>
       <c r="T29" t="n">
-        <v>116.443738921479</v>
+        <v>116.4437389214789</v>
       </c>
       <c r="U29" t="n">
-        <v>148.7604081536189</v>
+        <v>148.7604081536188</v>
       </c>
       <c r="V29" t="n">
         <v>230.0724161221061</v>
       </c>
       <c r="W29" t="n">
-        <v>255.3725156000631</v>
+        <v>255.372515600063</v>
       </c>
       <c r="X29" t="n">
         <v>274.6727738328096</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.1827497566241</v>
+        <v>78.18274975662405</v>
       </c>
       <c r="C31" t="n">
-        <v>64.38274460202459</v>
+        <v>64.38274460202453</v>
       </c>
       <c r="D31" t="n">
-        <v>48.00410899960298</v>
+        <v>48.00410899960292</v>
       </c>
       <c r="E31" t="n">
-        <v>46.95185885538243</v>
+        <v>46.95185885538237</v>
       </c>
       <c r="F31" t="n">
-        <v>47.41878318356873</v>
+        <v>47.41878318356868</v>
       </c>
       <c r="G31" t="n">
-        <v>63.47475676009466</v>
+        <v>63.47475676009461</v>
       </c>
       <c r="H31" t="n">
-        <v>52.29715258546305</v>
+        <v>52.29715258546301</v>
       </c>
       <c r="I31" t="n">
-        <v>32.64616679361002</v>
+        <v>32.64616679360995</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65464060095191</v>
+        <v>34.65464060095186</v>
       </c>
       <c r="S31" t="n">
         <v>104.2237472692227</v>
@@ -3007,16 +3007,16 @@
         <v>180.7693411942525</v>
       </c>
       <c r="V31" t="n">
-        <v>154.5908861562497</v>
+        <v>154.5908861562496</v>
       </c>
       <c r="W31" t="n">
-        <v>179.757772226863</v>
+        <v>179.7577722268629</v>
       </c>
       <c r="X31" t="n">
-        <v>125.4028742226661</v>
+        <v>125.402874222666</v>
       </c>
       <c r="Y31" t="n">
-        <v>116.2777419787338</v>
+        <v>116.2777419787337</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>251.4501286956955</v>
+        <v>251.4501286956956</v>
       </c>
       <c r="C32" t="n">
         <v>239.4614456533773</v>
       </c>
       <c r="D32" t="n">
-        <v>230.4427496979052</v>
+        <v>230.4427496979053</v>
       </c>
       <c r="E32" t="n">
         <v>252.1848872678108</v>
       </c>
       <c r="F32" t="n">
-        <v>271.3567033557879</v>
+        <v>271.356703355788</v>
       </c>
       <c r="G32" t="n">
         <v>272.8023521455216</v>
       </c>
       <c r="H32" t="n">
-        <v>185.8462570449017</v>
+        <v>185.8462570449018</v>
       </c>
       <c r="I32" t="n">
-        <v>13.63711572697321</v>
+        <v>13.63711572697326</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.59208977234593</v>
+        <v>35.59208977234599</v>
       </c>
       <c r="T32" t="n">
-        <v>81.32782873524746</v>
+        <v>81.32782873524752</v>
       </c>
       <c r="U32" t="n">
         <v>113.6444979673874</v>
       </c>
       <c r="V32" t="n">
-        <v>194.9565059358746</v>
+        <v>194.9565059358747</v>
       </c>
       <c r="W32" t="n">
         <v>220.2566054138316</v>
@@ -3095,7 +3095,7 @@
         <v>239.5568636465782</v>
       </c>
       <c r="Y32" t="n">
-        <v>250.9534614427769</v>
+        <v>250.953461442777</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.0668395703926</v>
+        <v>43.06683957039266</v>
       </c>
       <c r="C34" t="n">
-        <v>29.26683441579308</v>
+        <v>29.26683441579314</v>
       </c>
       <c r="D34" t="n">
-        <v>12.88819881337147</v>
+        <v>12.88819881337153</v>
       </c>
       <c r="E34" t="n">
-        <v>11.83594866915092</v>
+        <v>11.83594866915098</v>
       </c>
       <c r="F34" t="n">
-        <v>12.30287299733723</v>
+        <v>12.30287299733729</v>
       </c>
       <c r="G34" t="n">
-        <v>28.35884657386315</v>
+        <v>28.35884657386321</v>
       </c>
       <c r="H34" t="n">
-        <v>17.18124239923155</v>
+        <v>17.18124239923161</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>69.10783708299124</v>
+        <v>69.1078370829913</v>
       </c>
       <c r="T34" t="n">
-        <v>91.25961824291362</v>
+        <v>91.25961824291367</v>
       </c>
       <c r="U34" t="n">
-        <v>145.653431008021</v>
+        <v>145.6534310080211</v>
       </c>
       <c r="V34" t="n">
         <v>119.4749759700182</v>
@@ -3250,10 +3250,10 @@
         <v>144.6418620406315</v>
       </c>
       <c r="X34" t="n">
-        <v>90.28696403643457</v>
+        <v>90.28696403643463</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.16183179250226</v>
+        <v>81.16183179250231</v>
       </c>
     </row>
     <row r="35">
@@ -3506,13 +3506,13 @@
         <v>221.2892466166701</v>
       </c>
       <c r="D38" t="n">
-        <v>212.270550661198</v>
+        <v>212.2705506611981</v>
       </c>
       <c r="E38" t="n">
         <v>234.0126882311036</v>
       </c>
       <c r="F38" t="n">
-        <v>253.1845043190807</v>
+        <v>253.1845043190808</v>
       </c>
       <c r="G38" t="n">
         <v>254.6301531088144</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>17.41989073563872</v>
+        <v>17.41989073563875</v>
       </c>
       <c r="T38" t="n">
-        <v>63.15562969854025</v>
+        <v>63.15562969854028</v>
       </c>
       <c r="U38" t="n">
-        <v>95.47229893068015</v>
+        <v>95.47229893068018</v>
       </c>
       <c r="V38" t="n">
-        <v>176.7843068991674</v>
+        <v>176.7843068991675</v>
       </c>
       <c r="W38" t="n">
-        <v>202.0844063771243</v>
+        <v>202.0844063771244</v>
       </c>
       <c r="X38" t="n">
         <v>221.384664609871</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.89464053368539</v>
+        <v>24.89464053368542</v>
       </c>
       <c r="C40" t="n">
-        <v>11.09463537908587</v>
+        <v>11.0946353790859</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>10.18664753715594</v>
+        <v>55.78573491174242</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>96.53472542087094</v>
+        <v>50.93563804628406</v>
       </c>
       <c r="T40" t="n">
-        <v>73.08741920620641</v>
+        <v>73.08741920620643</v>
       </c>
       <c r="U40" t="n">
-        <v>127.4812319713138</v>
+        <v>127.4812319713139</v>
       </c>
       <c r="V40" t="n">
         <v>101.302776933311</v>
       </c>
       <c r="W40" t="n">
-        <v>126.4696630039242</v>
+        <v>126.4696630039243</v>
       </c>
       <c r="X40" t="n">
-        <v>72.11476499972736</v>
+        <v>72.11476499972738</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.98963275579504</v>
+        <v>62.98963275579507</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.2779296589883</v>
+        <v>233.2779296589882</v>
       </c>
       <c r="C41" t="n">
         <v>221.28924661667</v>
       </c>
       <c r="D41" t="n">
-        <v>212.270550661198</v>
+        <v>212.2705506611979</v>
       </c>
       <c r="E41" t="n">
         <v>234.0126882311035</v>
       </c>
       <c r="F41" t="n">
-        <v>253.1845043190807</v>
+        <v>253.1845043190806</v>
       </c>
       <c r="G41" t="n">
         <v>254.6301531088143</v>
       </c>
       <c r="H41" t="n">
-        <v>167.6740580081945</v>
+        <v>167.6740580081944</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>17.41989073563866</v>
+        <v>17.41989073563863</v>
       </c>
       <c r="T41" t="n">
-        <v>63.1556296985402</v>
+        <v>63.15562969854017</v>
       </c>
       <c r="U41" t="n">
-        <v>95.4722989306801</v>
+        <v>95.47229893068007</v>
       </c>
       <c r="V41" t="n">
-        <v>176.7843068991674</v>
+        <v>176.7843068991673</v>
       </c>
       <c r="W41" t="n">
         <v>202.0844063771243</v>
@@ -3806,7 +3806,7 @@
         <v>221.3846646098709</v>
       </c>
       <c r="Y41" t="n">
-        <v>232.7812624060697</v>
+        <v>232.7812624060696</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.89464053368533</v>
+        <v>24.8946405336853</v>
       </c>
       <c r="C43" t="n">
-        <v>11.09463537908582</v>
+        <v>11.09463537908579</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10.18664753715588</v>
+        <v>10.18664753715586</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>45.59908737458726</v>
+        <v>45.5990873745876</v>
       </c>
       <c r="S43" t="n">
-        <v>50.93563804628398</v>
+        <v>50.93563804628395</v>
       </c>
       <c r="T43" t="n">
-        <v>73.08741920620635</v>
+        <v>73.08741920620632</v>
       </c>
       <c r="U43" t="n">
-        <v>127.4812319713138</v>
+        <v>127.4812319713137</v>
       </c>
       <c r="V43" t="n">
         <v>101.3027769333109</v>
@@ -3961,10 +3961,10 @@
         <v>126.4696630039242</v>
       </c>
       <c r="X43" t="n">
-        <v>72.1147649997273</v>
+        <v>72.11476499972727</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.98963275579499</v>
+        <v>62.98963275579496</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3977,19 @@
         <v>233.2779296589883</v>
       </c>
       <c r="C44" t="n">
-        <v>221.2892466166701</v>
+        <v>221.28924661667</v>
       </c>
       <c r="D44" t="n">
-        <v>212.2705506611981</v>
+        <v>212.270550661198</v>
       </c>
       <c r="E44" t="n">
-        <v>234.0126882311036</v>
+        <v>234.0126882311035</v>
       </c>
       <c r="F44" t="n">
-        <v>253.1845043190808</v>
+        <v>253.1845043190807</v>
       </c>
       <c r="G44" t="n">
-        <v>254.6301531088144</v>
+        <v>254.6301531088143</v>
       </c>
       <c r="H44" t="n">
         <v>167.6740580081945</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>17.41989073563875</v>
+        <v>17.41989073563869</v>
       </c>
       <c r="T44" t="n">
-        <v>63.15562969854029</v>
+        <v>63.15562969854023</v>
       </c>
       <c r="U44" t="n">
-        <v>95.47229893068018</v>
+        <v>95.47229893068013</v>
       </c>
       <c r="V44" t="n">
-        <v>176.7843068991675</v>
+        <v>176.7843068991674</v>
       </c>
       <c r="W44" t="n">
-        <v>202.0844063771244</v>
+        <v>202.0844063771243</v>
       </c>
       <c r="X44" t="n">
-        <v>221.384664609871</v>
+        <v>221.3846646098709</v>
       </c>
       <c r="Y44" t="n">
         <v>232.7812624060697</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.89464053368542</v>
+        <v>24.89464053368536</v>
       </c>
       <c r="C46" t="n">
-        <v>11.0946353790859</v>
+        <v>11.09463537908584</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>55.78573491174242</v>
+        <v>10.18664753715591</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>19.83638472416913</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>50.93563804628406</v>
+        <v>50.93563804628401</v>
       </c>
       <c r="T46" t="n">
-        <v>73.08741920620643</v>
+        <v>98.85012185662424</v>
       </c>
       <c r="U46" t="n">
-        <v>127.4812319713139</v>
+        <v>127.4812319713138</v>
       </c>
       <c r="V46" t="n">
         <v>101.302776933311</v>
       </c>
       <c r="W46" t="n">
-        <v>126.4696630039243</v>
+        <v>126.4696630039242</v>
       </c>
       <c r="X46" t="n">
-        <v>72.11476499972738</v>
+        <v>72.11476499972733</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.98963275579507</v>
+        <v>62.98963275579501</v>
       </c>
     </row>
   </sheetData>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>405.8171938589879</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="C8" t="n">
-        <v>405.8171938589879</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="D8" t="n">
-        <v>405.8171938589879</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="E8" t="n">
-        <v>405.8171938589879</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="F8" t="n">
-        <v>285.0591586052728</v>
+        <v>160.0223377799417</v>
       </c>
       <c r="G8" t="n">
         <v>147.9587552745337</v>
@@ -4805,49 +4805,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K8" t="n">
-        <v>10.85835194379454</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L8" t="n">
-        <v>10.85835194379454</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="M8" t="n">
-        <v>145.230457248252</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="N8" t="n">
-        <v>279.6025625527094</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="O8" t="n">
-        <v>413.9746678571669</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="P8" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="Q8" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R8" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="S8" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="T8" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="U8" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="V8" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="W8" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="X8" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="Y8" t="n">
-        <v>542.9175971897271</v>
+        <v>178.0785040241021</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>208.9325216231946</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="C9" t="n">
-        <v>71.83211829245539</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="D9" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="E9" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="F9" t="n">
-        <v>10.85835194379454</v>
+        <v>307.9069946837509</v>
       </c>
       <c r="G9" t="n">
-        <v>10.85835194379454</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="H9" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I9" t="n">
         <v>10.85835194379454</v>
@@ -4884,7 +4884,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K9" t="n">
-        <v>145.230457248252</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L9" t="n">
         <v>145.230457248252</v>
@@ -4893,40 +4893,40 @@
         <v>145.230457248252</v>
       </c>
       <c r="N9" t="n">
+        <v>145.230457248252</v>
+      </c>
+      <c r="O9" t="n">
         <v>274.1733865808121</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>408.5454918852696</v>
-      </c>
-      <c r="P9" t="n">
-        <v>542.9175971897271</v>
       </c>
       <c r="Q9" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X9" t="n">
-        <v>346.0329249539337</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Y9" t="n">
-        <v>346.0329249539337</v>
+        <v>542.9175971897271</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>405.8171938589878</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="C10" t="n">
-        <v>405.8171938589878</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="D10" t="n">
-        <v>405.8171938589878</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="E10" t="n">
-        <v>405.8171938589878</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="F10" t="n">
-        <v>268.7167905282487</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="G10" t="n">
-        <v>208.015993860361</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="H10" t="n">
-        <v>208.015993860361</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="I10" t="n">
         <v>70.91559052962182</v>
@@ -4981,31 +4981,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R10" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="S10" t="n">
-        <v>542.917597189727</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="T10" t="n">
-        <v>542.917597189727</v>
+        <v>93.07904585119849</v>
       </c>
       <c r="U10" t="n">
-        <v>542.917597189727</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="V10" t="n">
-        <v>542.917597189727</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="W10" t="n">
-        <v>542.917597189727</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="X10" t="n">
-        <v>542.917597189727</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="Y10" t="n">
-        <v>405.8171938589878</v>
+        <v>70.91559052962182</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1484.491672724222</v>
+        <v>1339.325777906834</v>
       </c>
       <c r="C11" t="n">
-        <v>1484.491672724222</v>
+        <v>1339.325777906834</v>
       </c>
       <c r="D11" t="n">
-        <v>1195.692632895413</v>
+        <v>1339.325777906834</v>
       </c>
       <c r="E11" t="n">
-        <v>884.931837945489</v>
+        <v>1028.564982956909</v>
       </c>
       <c r="F11" t="n">
-        <v>698.4387172110477</v>
+        <v>698.438717211048</v>
       </c>
       <c r="G11" t="n">
-        <v>366.8522001624252</v>
+        <v>366.8522001624254</v>
       </c>
       <c r="H11" t="n">
-        <v>123.1001226093784</v>
+        <v>123.1001226093785</v>
       </c>
       <c r="I11" t="n">
-        <v>53.29667265019872</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="J11" t="n">
         <v>166.2674185418009</v>
       </c>
       <c r="K11" t="n">
-        <v>467.8144998655653</v>
+        <v>467.8144998655655</v>
       </c>
       <c r="L11" t="n">
-        <v>891.8803257637571</v>
+        <v>891.8803257637575</v>
       </c>
       <c r="M11" t="n">
-        <v>1369.884924173389</v>
+        <v>1369.88492417339</v>
       </c>
       <c r="N11" t="n">
-        <v>1834.353308329473</v>
+        <v>1834.353308329474</v>
       </c>
       <c r="O11" t="n">
-        <v>2220.694643393614</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P11" t="n">
         <v>2518.270574687117</v>
       </c>
       <c r="Q11" t="n">
-        <v>2664.833632509936</v>
+        <v>2664.833632509937</v>
       </c>
       <c r="R11" t="n">
-        <v>2664.833632509936</v>
+        <v>2664.833632509937</v>
       </c>
       <c r="S11" t="n">
-        <v>2572.853441090784</v>
+        <v>2572.853441090785</v>
       </c>
       <c r="T11" t="n">
-        <v>2572.853441090784</v>
+        <v>2434.67553354749</v>
       </c>
       <c r="U11" t="n">
-        <v>2402.032433313004</v>
+        <v>2434.67553354749</v>
       </c>
       <c r="V11" t="n">
-        <v>2402.032433313004</v>
+        <v>2181.721184387399</v>
       </c>
       <c r="W11" t="n">
-        <v>2402.032433313004</v>
+        <v>1903.211179188969</v>
       </c>
       <c r="X11" t="n">
-        <v>2104.027217778466</v>
+        <v>1903.211179188969</v>
       </c>
       <c r="Y11" t="n">
-        <v>1794.510287298272</v>
+        <v>1593.694248708775</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I12" t="n">
-        <v>53.29667265019872</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="J12" t="n">
-        <v>137.953581779779</v>
+        <v>137.9535817797791</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1523424321821</v>
+        <v>137.9535817797791</v>
       </c>
       <c r="L12" t="n">
-        <v>412.9885134793933</v>
+        <v>559.8572598424465</v>
       </c>
       <c r="M12" t="n">
-        <v>963.4667207660607</v>
+        <v>1110.335467129114</v>
       </c>
       <c r="N12" t="n">
-        <v>1541.909351207846</v>
+        <v>1688.778097570899</v>
       </c>
       <c r="O12" t="n">
-        <v>1995.56311855441</v>
+        <v>2142.431864917463</v>
       </c>
       <c r="P12" t="n">
-        <v>2346.981143485615</v>
+        <v>2493.849889848668</v>
       </c>
       <c r="Q12" t="n">
-        <v>2537.723294723685</v>
+        <v>2537.723294723684</v>
       </c>
       <c r="R12" t="n">
         <v>2494.301286176934</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>541.0407254430451</v>
+        <v>192.4216125374728</v>
       </c>
       <c r="C13" t="n">
-        <v>455.4496808486937</v>
+        <v>106.8305679431212</v>
       </c>
       <c r="D13" t="n">
-        <v>386.4027126204248</v>
+        <v>106.8305679431212</v>
       </c>
       <c r="E13" t="n">
-        <v>318.4186233257121</v>
+        <v>106.8305679431212</v>
       </c>
       <c r="F13" t="n">
-        <v>264.8878289919333</v>
+        <v>106.8305679431212</v>
       </c>
       <c r="G13" t="n">
-        <v>180.2139438338749</v>
+        <v>106.8305679431212</v>
       </c>
       <c r="H13" t="n">
-        <v>106.8305679431211</v>
+        <v>106.8305679431212</v>
       </c>
       <c r="I13" t="n">
-        <v>53.29667265019872</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="J13" t="n">
-        <v>92.09691108333314</v>
+        <v>92.0969110833331</v>
       </c>
       <c r="K13" t="n">
-        <v>233.2121540029767</v>
+        <v>233.2121540029765</v>
       </c>
       <c r="L13" t="n">
-        <v>448.3659302505779</v>
+        <v>448.3659302505778</v>
       </c>
       <c r="M13" t="n">
-        <v>682.6561851132416</v>
+        <v>682.6561851132413</v>
       </c>
       <c r="N13" t="n">
-        <v>916.5681650535111</v>
+        <v>916.5681650535108</v>
       </c>
       <c r="O13" t="n">
         <v>1127.991847180004</v>
@@ -5224,25 +5224,25 @@
         <v>1306.655064076298</v>
       </c>
       <c r="S13" t="n">
-        <v>1306.655064076298</v>
+        <v>1207.864523129604</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.445045919199</v>
+        <v>1059.654504972504</v>
       </c>
       <c r="U13" t="n">
-        <v>955.2917825448199</v>
+        <v>856.5012415981248</v>
       </c>
       <c r="V13" t="n">
-        <v>778.5814030472109</v>
+        <v>679.7908621005158</v>
       </c>
       <c r="W13" t="n">
-        <v>778.5814030472109</v>
+        <v>477.6593855618833</v>
       </c>
       <c r="X13" t="n">
-        <v>778.5814030472109</v>
+        <v>330.4318464012274</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.5711691834564</v>
+        <v>192.4216125374728</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1628.124817735642</v>
+        <v>1644.318980715465</v>
       </c>
       <c r="C14" t="n">
         <v>1628.124817735642</v>
@@ -5264,25 +5264,25 @@
         <v>1028.564982956909</v>
       </c>
       <c r="F14" t="n">
-        <v>698.4387172110479</v>
+        <v>698.438717211048</v>
       </c>
       <c r="G14" t="n">
-        <v>366.8522001624254</v>
+        <v>366.8522001624255</v>
       </c>
       <c r="H14" t="n">
-        <v>123.1001226093785</v>
+        <v>123.1001226093786</v>
       </c>
       <c r="I14" t="n">
         <v>53.29667265019874</v>
       </c>
       <c r="J14" t="n">
-        <v>166.2674185418009</v>
+        <v>166.2674185418005</v>
       </c>
       <c r="K14" t="n">
-        <v>467.8144998655653</v>
+        <v>467.8144998655648</v>
       </c>
       <c r="L14" t="n">
-        <v>891.8803257637571</v>
+        <v>891.8803257637567</v>
       </c>
       <c r="M14" t="n">
         <v>1369.884924173389</v>
@@ -5291,10 +5291,10 @@
         <v>1834.353308329473</v>
       </c>
       <c r="O14" t="n">
-        <v>2220.694643393614</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P14" t="n">
-        <v>2518.270574687118</v>
+        <v>2518.270574687117</v>
       </c>
       <c r="Q14" t="n">
         <v>2664.833632509937</v>
@@ -5306,22 +5306,22 @@
         <v>2572.853441090785</v>
       </c>
       <c r="T14" t="n">
-        <v>2457.594387628701</v>
+        <v>2434.67553354749</v>
       </c>
       <c r="U14" t="n">
-        <v>2457.594387628701</v>
+        <v>2263.85452576971</v>
       </c>
       <c r="V14" t="n">
-        <v>2204.640038468611</v>
+        <v>2263.85452576971</v>
       </c>
       <c r="W14" t="n">
-        <v>1926.13003327018</v>
+        <v>2263.85452576971</v>
       </c>
       <c r="X14" t="n">
-        <v>1628.124817735642</v>
+        <v>2263.85452576971</v>
       </c>
       <c r="Y14" t="n">
-        <v>1628.124817735642</v>
+        <v>1954.337595289516</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C15" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D15" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E15" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F15" t="n">
         <v>338.4631427083693</v>
@@ -5349,7 +5349,7 @@
         <v>209.9981773008608</v>
       </c>
       <c r="H15" t="n">
-        <v>112.6055089764784</v>
+        <v>112.6055089764783</v>
       </c>
       <c r="I15" t="n">
         <v>53.29667265019874</v>
@@ -5358,25 +5358,25 @@
         <v>137.9535817797791</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1523424321822</v>
+        <v>409.1523424321824</v>
       </c>
       <c r="L15" t="n">
-        <v>831.0560204948495</v>
+        <v>831.0560204948498</v>
       </c>
       <c r="M15" t="n">
-        <v>963.4667207660607</v>
+        <v>1381.534227781518</v>
       </c>
       <c r="N15" t="n">
-        <v>1541.909351207846</v>
+        <v>1959.976858223303</v>
       </c>
       <c r="O15" t="n">
-        <v>1995.56311855441</v>
+        <v>2413.630625569867</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.981143485615</v>
+        <v>2537.723294723684</v>
       </c>
       <c r="Q15" t="n">
-        <v>2537.723294723685</v>
+        <v>2537.723294723684</v>
       </c>
       <c r="R15" t="n">
         <v>2494.301286176934</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>276.3904155030735</v>
+        <v>220.9403285667214</v>
       </c>
       <c r="C16" t="n">
-        <v>190.7993709087222</v>
+        <v>137.9705578082572</v>
       </c>
       <c r="D16" t="n">
-        <v>121.7524026804533</v>
+        <v>137.9705578082572</v>
       </c>
       <c r="E16" t="n">
-        <v>121.7524026804533</v>
+        <v>137.9705578082572</v>
       </c>
       <c r="F16" t="n">
-        <v>53.29667265019874</v>
+        <v>137.9705578082572</v>
       </c>
       <c r="G16" t="n">
         <v>53.29667265019874</v>
@@ -5434,19 +5434,19 @@
         <v>53.29667265019874</v>
       </c>
       <c r="J16" t="n">
-        <v>92.09691108333311</v>
+        <v>92.09691108333308</v>
       </c>
       <c r="K16" t="n">
-        <v>233.2121540029763</v>
+        <v>233.2121540029765</v>
       </c>
       <c r="L16" t="n">
-        <v>448.3659302505775</v>
+        <v>448.3659302505778</v>
       </c>
       <c r="M16" t="n">
-        <v>682.6561851132411</v>
+        <v>682.6561851132412</v>
       </c>
       <c r="N16" t="n">
-        <v>916.5681650535105</v>
+        <v>916.5681650535107</v>
       </c>
       <c r="O16" t="n">
         <v>1127.991847180004</v>
@@ -5458,28 +5458,28 @@
         <v>1362.217720790778</v>
       </c>
       <c r="R16" t="n">
-        <v>1306.655064076298</v>
+        <v>1362.217720790778</v>
       </c>
       <c r="S16" t="n">
-        <v>1244.13623067496</v>
+        <v>1236.383239158853</v>
       </c>
       <c r="T16" t="n">
-        <v>1095.926212517861</v>
+        <v>1088.173221001753</v>
       </c>
       <c r="U16" t="n">
-        <v>892.772949143481</v>
+        <v>885.0199576273734</v>
       </c>
       <c r="V16" t="n">
-        <v>716.062569645872</v>
+        <v>708.3095781297643</v>
       </c>
       <c r="W16" t="n">
-        <v>513.9310931072395</v>
+        <v>506.1781015911318</v>
       </c>
       <c r="X16" t="n">
-        <v>513.9310931072395</v>
+        <v>358.9505624304759</v>
       </c>
       <c r="Y16" t="n">
-        <v>375.920859243485</v>
+        <v>220.9403285667214</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1409.92414835228</v>
+        <v>1409.924148352281</v>
       </c>
       <c r="C17" t="n">
-        <v>1186.39965682029</v>
+        <v>1186.399656820291</v>
       </c>
       <c r="D17" t="n">
-        <v>971.9849591827167</v>
+        <v>971.9849591827173</v>
       </c>
       <c r="E17" t="n">
-        <v>735.6085064240262</v>
+        <v>735.6085064240269</v>
       </c>
       <c r="F17" t="n">
-        <v>479.8665828693994</v>
+        <v>479.8665828693998</v>
       </c>
       <c r="G17" t="n">
         <v>222.6644080120113</v>
@@ -5513,25 +5513,25 @@
         <v>53.29667265019874</v>
       </c>
       <c r="J17" t="n">
-        <v>166.2674185418022</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K17" t="n">
-        <v>467.8144998655666</v>
+        <v>467.8144998655655</v>
       </c>
       <c r="L17" t="n">
-        <v>891.8803257637585</v>
+        <v>891.8803257637576</v>
       </c>
       <c r="M17" t="n">
-        <v>1369.884924173391</v>
+        <v>1369.884924173389</v>
       </c>
       <c r="N17" t="n">
-        <v>1834.353308329474</v>
+        <v>1834.353308329473</v>
       </c>
       <c r="O17" t="n">
         <v>2220.694643393615</v>
       </c>
       <c r="P17" t="n">
-        <v>2518.270574687118</v>
+        <v>2518.270574687117</v>
       </c>
       <c r="Q17" t="n">
         <v>2664.833632509937</v>
@@ -5552,10 +5552,10 @@
         <v>2308.437545374557</v>
       </c>
       <c r="W17" t="n">
-        <v>2104.311882367361</v>
+        <v>2104.31188236736</v>
       </c>
       <c r="X17" t="n">
-        <v>1880.691009024057</v>
+        <v>1880.691009024056</v>
       </c>
       <c r="Y17" t="n">
         <v>1645.558420735097</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C18" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D18" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E18" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F18" t="n">
         <v>338.4631427083693</v>
@@ -5586,34 +5586,34 @@
         <v>209.9981773008608</v>
       </c>
       <c r="H18" t="n">
-        <v>112.6055089764784</v>
+        <v>112.6055089764783</v>
       </c>
       <c r="I18" t="n">
         <v>53.29667265019874</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9535817797791</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1523424321822</v>
+        <v>324.495433302602</v>
       </c>
       <c r="L18" t="n">
-        <v>831.0560204948495</v>
+        <v>746.3991113652694</v>
       </c>
       <c r="M18" t="n">
-        <v>1154.208872004131</v>
+        <v>1296.877318651937</v>
       </c>
       <c r="N18" t="n">
-        <v>1732.651502445916</v>
+        <v>1875.319949093722</v>
       </c>
       <c r="O18" t="n">
-        <v>2186.30526979248</v>
+        <v>1995.563118554409</v>
       </c>
       <c r="P18" t="n">
-        <v>2537.723294723685</v>
+        <v>2346.981143485614</v>
       </c>
       <c r="Q18" t="n">
-        <v>2537.723294723685</v>
+        <v>2537.723294723684</v>
       </c>
       <c r="R18" t="n">
         <v>2494.301286176934</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.8158499902589</v>
+        <v>74.79291802013975</v>
       </c>
       <c r="C19" t="n">
-        <v>89.60914758714193</v>
+        <v>63.58621561702282</v>
       </c>
       <c r="D19" t="n">
-        <v>89.60914758714193</v>
+        <v>63.58621561702282</v>
       </c>
       <c r="E19" t="n">
-        <v>89.60914758714193</v>
+        <v>63.58621561702282</v>
       </c>
       <c r="F19" t="n">
-        <v>89.60914758714193</v>
+        <v>63.58621561702282</v>
       </c>
       <c r="G19" t="n">
         <v>53.29667265019874</v>
@@ -5677,46 +5677,46 @@
         <v>112.0590866322588</v>
       </c>
       <c r="L19" t="n">
-        <v>244.8600339422765</v>
+        <v>244.8600339422767</v>
       </c>
       <c r="M19" t="n">
-        <v>396.7974598673567</v>
+        <v>396.7974598673569</v>
       </c>
       <c r="N19" t="n">
-        <v>548.3566108700427</v>
+        <v>548.3566108700429</v>
       </c>
       <c r="O19" t="n">
-        <v>677.4274640589525</v>
+        <v>677.4274640589529</v>
       </c>
       <c r="P19" t="n">
-        <v>766.5857006714871</v>
+        <v>766.5857006714875</v>
       </c>
       <c r="Q19" t="n">
-        <v>746.5489484248516</v>
+        <v>766.5857006714875</v>
       </c>
       <c r="R19" t="n">
-        <v>746.5489484248516</v>
+        <v>766.5857006714875</v>
       </c>
       <c r="S19" t="n">
-        <v>695.0988089841607</v>
+        <v>669.0758770140412</v>
       </c>
       <c r="T19" t="n">
-        <v>621.2731330182957</v>
+        <v>595.2502010481762</v>
       </c>
       <c r="U19" t="n">
-        <v>492.5042118351504</v>
+        <v>466.4812798650311</v>
       </c>
       <c r="V19" t="n">
-        <v>390.1781745287758</v>
+        <v>364.1552425586565</v>
       </c>
       <c r="W19" t="n">
-        <v>262.4310401813776</v>
+        <v>236.4081082112584</v>
       </c>
       <c r="X19" t="n">
-        <v>189.5878432119561</v>
+        <v>163.5649112418369</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.961951539436</v>
+        <v>99.9390195693168</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1409.92414835228</v>
+        <v>1409.924148352281</v>
       </c>
       <c r="C20" t="n">
-        <v>1186.39965682029</v>
+        <v>1186.399656820291</v>
       </c>
       <c r="D20" t="n">
-        <v>971.9849591827167</v>
+        <v>971.9849591827171</v>
       </c>
       <c r="E20" t="n">
-        <v>735.6085064240262</v>
+        <v>735.6085064240267</v>
       </c>
       <c r="F20" t="n">
-        <v>479.8665828693994</v>
+        <v>479.8665828693998</v>
       </c>
       <c r="G20" t="n">
         <v>222.6644080120113</v>
@@ -5750,16 +5750,16 @@
         <v>53.29667265019874</v>
       </c>
       <c r="J20" t="n">
-        <v>166.2674185418009</v>
+        <v>166.2674185418005</v>
       </c>
       <c r="K20" t="n">
-        <v>467.8144998655655</v>
+        <v>467.8144998655648</v>
       </c>
       <c r="L20" t="n">
-        <v>891.8803257637576</v>
+        <v>891.8803257637569</v>
       </c>
       <c r="M20" t="n">
-        <v>1369.88492417339</v>
+        <v>1369.884924173389</v>
       </c>
       <c r="N20" t="n">
         <v>1834.353308329473</v>
@@ -5786,7 +5786,7 @@
         <v>2487.007552343412</v>
       </c>
       <c r="V20" t="n">
-        <v>2308.437545374556</v>
+        <v>2308.437545374557</v>
       </c>
       <c r="W20" t="n">
         <v>2104.31188236736</v>
@@ -5829,25 +5829,25 @@
         <v>53.29667265019874</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9535817797791</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="K21" t="n">
-        <v>342.50286034793</v>
+        <v>181.8269866547947</v>
       </c>
       <c r="L21" t="n">
-        <v>764.4065384105974</v>
+        <v>603.7306647174621</v>
       </c>
       <c r="M21" t="n">
-        <v>1314.884745697265</v>
+        <v>1154.20887200413</v>
       </c>
       <c r="N21" t="n">
-        <v>1893.32737613905</v>
+        <v>1732.651502445915</v>
       </c>
       <c r="O21" t="n">
-        <v>2346.981143485614</v>
+        <v>2186.305269792479</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.981143485614</v>
+        <v>2537.723294723684</v>
       </c>
       <c r="Q21" t="n">
         <v>2537.723294723684</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.79291802013979</v>
+        <v>120.8526022368949</v>
       </c>
       <c r="C22" t="n">
-        <v>63.58621561702284</v>
+        <v>109.6458998337779</v>
       </c>
       <c r="D22" t="n">
         <v>63.58621561702284</v>
@@ -5926,34 +5926,34 @@
         <v>677.4274640589529</v>
       </c>
       <c r="P22" t="n">
-        <v>766.5857006714874</v>
+        <v>766.5857006714875</v>
       </c>
       <c r="Q22" t="n">
-        <v>766.5857006714874</v>
+        <v>766.5857006714875</v>
       </c>
       <c r="R22" t="n">
-        <v>766.5857006714874</v>
+        <v>766.5857006714875</v>
       </c>
       <c r="S22" t="n">
-        <v>669.0758770140415</v>
+        <v>715.1355612307966</v>
       </c>
       <c r="T22" t="n">
-        <v>595.2502010481765</v>
+        <v>641.3098852649316</v>
       </c>
       <c r="U22" t="n">
-        <v>466.4812798650313</v>
+        <v>512.5409640817863</v>
       </c>
       <c r="V22" t="n">
-        <v>364.1552425586567</v>
+        <v>410.2149267754117</v>
       </c>
       <c r="W22" t="n">
-        <v>236.4081082112585</v>
+        <v>282.4677924280136</v>
       </c>
       <c r="X22" t="n">
-        <v>163.564911241837</v>
+        <v>209.6245954585921</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.93901956931687</v>
+        <v>145.9987037860719</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>1409.924148352281</v>
       </c>
       <c r="C23" t="n">
-        <v>1186.399656820292</v>
+        <v>1186.399656820291</v>
       </c>
       <c r="D23" t="n">
-        <v>971.9849591827178</v>
+        <v>971.9849591827169</v>
       </c>
       <c r="E23" t="n">
-        <v>735.6085064240274</v>
+        <v>735.6085064240265</v>
       </c>
       <c r="F23" t="n">
-        <v>479.8665828694005</v>
+        <v>479.8665828693997</v>
       </c>
       <c r="G23" t="n">
         <v>222.6644080120113</v>
       </c>
       <c r="H23" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="I23" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="J23" t="n">
-        <v>166.2674185418009</v>
+        <v>166.2674185417991</v>
       </c>
       <c r="K23" t="n">
-        <v>467.8144998655655</v>
+        <v>467.8144998655637</v>
       </c>
       <c r="L23" t="n">
-        <v>891.8803257637576</v>
+        <v>891.8803257637558</v>
       </c>
       <c r="M23" t="n">
-        <v>1369.88492417339</v>
+        <v>1369.884924173388</v>
       </c>
       <c r="N23" t="n">
-        <v>1834.353308329473</v>
+        <v>1834.353308329472</v>
       </c>
       <c r="O23" t="n">
-        <v>2220.694643393615</v>
+        <v>2220.694643393614</v>
       </c>
       <c r="P23" t="n">
-        <v>2518.270574687117</v>
+        <v>2518.270574687116</v>
       </c>
       <c r="Q23" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509936</v>
       </c>
       <c r="R23" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509936</v>
       </c>
       <c r="S23" t="n">
-        <v>2647.237783282019</v>
+        <v>2647.237783282018</v>
       </c>
       <c r="T23" t="n">
-        <v>2583.444217929959</v>
+        <v>2583.444217929957</v>
       </c>
       <c r="U23" t="n">
-        <v>2487.007552343413</v>
+        <v>2487.007552343412</v>
       </c>
       <c r="V23" t="n">
         <v>2308.437545374557</v>
       </c>
       <c r="W23" t="n">
-        <v>2104.311882367361</v>
+        <v>2104.31188236736</v>
       </c>
       <c r="X23" t="n">
-        <v>1880.691009024057</v>
+        <v>1880.691009024056</v>
       </c>
       <c r="Y23" t="n">
-        <v>1645.558420735098</v>
+        <v>1645.558420735097</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C24" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D24" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E24" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F24" t="n">
         <v>338.4631427083693</v>
@@ -6063,16 +6063,16 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I24" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="J24" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="K24" t="n">
-        <v>181.8269866547948</v>
+        <v>181.8269866547947</v>
       </c>
       <c r="L24" t="n">
-        <v>603.7306647174622</v>
+        <v>603.7306647174621</v>
       </c>
       <c r="M24" t="n">
         <v>1154.20887200413</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.79291802013981</v>
+        <v>74.79291802013978</v>
       </c>
       <c r="C25" t="n">
-        <v>63.58621561702284</v>
+        <v>63.58621561702282</v>
       </c>
       <c r="D25" t="n">
-        <v>63.58621561702284</v>
+        <v>63.58621561702282</v>
       </c>
       <c r="E25" t="n">
-        <v>63.58621561702284</v>
+        <v>63.58621561702282</v>
       </c>
       <c r="F25" t="n">
-        <v>63.58621561702284</v>
+        <v>63.58621561702282</v>
       </c>
       <c r="G25" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="H25" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="I25" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="J25" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="K25" t="n">
         <v>112.0590866322588</v>
@@ -6163,22 +6163,22 @@
         <v>677.4274640589529</v>
       </c>
       <c r="P25" t="n">
-        <v>766.5857006714874</v>
+        <v>766.5857006714875</v>
       </c>
       <c r="Q25" t="n">
-        <v>766.5857006714874</v>
+        <v>766.5857006714875</v>
       </c>
       <c r="R25" t="n">
-        <v>766.5857006714874</v>
+        <v>766.5857006714875</v>
       </c>
       <c r="S25" t="n">
-        <v>715.1355612307966</v>
+        <v>669.0758770140415</v>
       </c>
       <c r="T25" t="n">
-        <v>641.3098852649316</v>
+        <v>595.2502010481765</v>
       </c>
       <c r="U25" t="n">
-        <v>466.4812798650314</v>
+        <v>466.4812798650313</v>
       </c>
       <c r="V25" t="n">
         <v>364.1552425586567</v>
@@ -6187,10 +6187,10 @@
         <v>236.4081082112585</v>
       </c>
       <c r="X25" t="n">
-        <v>163.5649112418371</v>
+        <v>163.564911241837</v>
       </c>
       <c r="Y25" t="n">
-        <v>99.93901956931688</v>
+        <v>99.93901956931686</v>
       </c>
     </row>
     <row r="26">
@@ -6215,58 +6215,58 @@
         <v>653.1487830060596</v>
       </c>
       <c r="G26" t="n">
-        <v>342.120235196208</v>
+        <v>342.1202351962079</v>
       </c>
       <c r="H26" t="n">
         <v>118.926126881932</v>
       </c>
       <c r="I26" t="n">
-        <v>69.68064616152317</v>
+        <v>69.68064616152314</v>
       </c>
       <c r="J26" t="n">
         <v>285.1530866416281</v>
       </c>
       <c r="K26" t="n">
-        <v>689.2018625538954</v>
+        <v>689.2018625538955</v>
       </c>
       <c r="L26" t="n">
-        <v>1154.579318666048</v>
+        <v>1215.76938304059</v>
       </c>
       <c r="M26" t="n">
-        <v>1735.085611664183</v>
+        <v>1796.275676038725</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.05569040877</v>
+        <v>2363.245754783312</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.898720061414</v>
+        <v>2790.898720061413</v>
       </c>
       <c r="P26" t="n">
-        <v>3190.976345943419</v>
+        <v>3190.976345943418</v>
       </c>
       <c r="Q26" t="n">
-        <v>3440.041098354742</v>
+        <v>3440.041098354741</v>
       </c>
       <c r="R26" t="n">
-        <v>3484.032308076158</v>
+        <v>3484.032308076157</v>
       </c>
       <c r="S26" t="n">
-        <v>3412.610085895777</v>
+        <v>3412.610085895776</v>
       </c>
       <c r="T26" t="n">
-        <v>3294.990147591253</v>
+        <v>3294.990147591252</v>
       </c>
       <c r="U26" t="n">
-        <v>3144.727109052244</v>
+        <v>3144.727109052243</v>
       </c>
       <c r="V26" t="n">
-        <v>2912.330729130924</v>
+        <v>2912.330729130923</v>
       </c>
       <c r="W26" t="n">
-        <v>2654.378693171265</v>
+        <v>2654.378693171263</v>
       </c>
       <c r="X26" t="n">
-        <v>2376.931446875497</v>
+        <v>2376.931446875496</v>
       </c>
       <c r="Y26" t="n">
         <v>2087.972485634074</v>
@@ -6297,31 +6297,31 @@
         <v>226.3821508121852</v>
       </c>
       <c r="H27" t="n">
-        <v>128.9894824878028</v>
+        <v>128.9894824878027</v>
       </c>
       <c r="I27" t="n">
-        <v>69.68064616152317</v>
+        <v>69.68064616152314</v>
       </c>
       <c r="J27" t="n">
-        <v>154.3375552911036</v>
+        <v>69.68064616152314</v>
       </c>
       <c r="K27" t="n">
-        <v>425.5363159435067</v>
+        <v>198.2109601661189</v>
       </c>
       <c r="L27" t="n">
-        <v>847.4399940061742</v>
+        <v>620.1146382287864</v>
       </c>
       <c r="M27" t="n">
-        <v>1397.918201292842</v>
+        <v>1170.592845515454</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.29332471917</v>
+        <v>1749.035475957239</v>
       </c>
       <c r="O27" t="n">
-        <v>2011.947092065733</v>
+        <v>2202.689243303803</v>
       </c>
       <c r="P27" t="n">
-        <v>2363.365116996938</v>
+        <v>2554.107268235009</v>
       </c>
       <c r="Q27" t="n">
         <v>2554.107268235009</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>428.4438499794492</v>
+        <v>428.4438499794484</v>
       </c>
       <c r="C28" t="n">
-        <v>363.4107746238688</v>
+        <v>363.410774623868</v>
       </c>
       <c r="D28" t="n">
-        <v>314.9217756343708</v>
+        <v>314.92177563437</v>
       </c>
       <c r="E28" t="n">
-        <v>267.4956555784289</v>
+        <v>267.4956555784281</v>
       </c>
       <c r="F28" t="n">
-        <v>219.5978947869453</v>
+        <v>219.5978947869445</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4819788676577</v>
+        <v>155.4819788676569</v>
       </c>
       <c r="H28" t="n">
-        <v>102.6565722156747</v>
+        <v>102.656572215674</v>
       </c>
       <c r="I28" t="n">
-        <v>69.68064616152317</v>
+        <v>69.68064616152314</v>
       </c>
       <c r="J28" t="n">
-        <v>128.6297502455769</v>
+        <v>128.6297502455763</v>
       </c>
       <c r="K28" t="n">
-        <v>289.8938588161398</v>
+        <v>289.8938588161392</v>
       </c>
       <c r="L28" t="n">
-        <v>525.1965007146616</v>
+        <v>525.1965007146598</v>
       </c>
       <c r="M28" t="n">
-        <v>779.6356212282446</v>
+        <v>779.6356212282426</v>
       </c>
       <c r="N28" t="n">
-        <v>1033.696466819433</v>
+        <v>1033.696466819431</v>
       </c>
       <c r="O28" t="n">
-        <v>1265.269014596846</v>
+        <v>1265.269014596844</v>
       </c>
       <c r="P28" t="n">
-        <v>1456.928945797883</v>
+        <v>1456.928945797882</v>
       </c>
       <c r="Q28" t="n">
-        <v>1539.792619509459</v>
+        <v>1539.792619509457</v>
       </c>
       <c r="R28" t="n">
-        <v>1504.78793203375</v>
+        <v>1504.787932033748</v>
       </c>
       <c r="S28" t="n">
-        <v>1399.511419640595</v>
+        <v>1399.511419640594</v>
       </c>
       <c r="T28" t="n">
-        <v>1271.859370722267</v>
+        <v>1271.859370722265</v>
       </c>
       <c r="U28" t="n">
-        <v>1089.264076586658</v>
+        <v>1089.264076586657</v>
       </c>
       <c r="V28" t="n">
-        <v>933.11166632782</v>
+        <v>933.1116663278189</v>
       </c>
       <c r="W28" t="n">
-        <v>751.5381590279584</v>
+        <v>751.5381590279571</v>
       </c>
       <c r="X28" t="n">
-        <v>624.8685891060734</v>
+        <v>624.8685891060722</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.4163244810898</v>
+        <v>507.4163244810889</v>
       </c>
     </row>
     <row r="29">
@@ -6446,49 +6446,49 @@
         <v>1252.919905224304</v>
       </c>
       <c r="E29" t="n">
-        <v>962.7170795131499</v>
+        <v>962.7170795131501</v>
       </c>
       <c r="F29" t="n">
-        <v>653.1487830060596</v>
+        <v>653.1487830060598</v>
       </c>
       <c r="G29" t="n">
-        <v>342.1202351962081</v>
+        <v>342.1202351962083</v>
       </c>
       <c r="H29" t="n">
-        <v>118.926126881932</v>
+        <v>118.9261268819319</v>
       </c>
       <c r="I29" t="n">
-        <v>69.68064616152317</v>
+        <v>69.68064616152314</v>
       </c>
       <c r="J29" t="n">
         <v>285.1530866416281</v>
       </c>
       <c r="K29" t="n">
-        <v>689.2018625538956</v>
+        <v>628.0117981793517</v>
       </c>
       <c r="L29" t="n">
-        <v>1215.769383040591</v>
+        <v>1154.579318666047</v>
       </c>
       <c r="M29" t="n">
-        <v>1735.085611664183</v>
+        <v>1735.085611664182</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.05569040877</v>
+        <v>2302.055690408768</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.898720061414</v>
+        <v>2790.898720061413</v>
       </c>
       <c r="P29" t="n">
-        <v>3190.976345943419</v>
+        <v>3190.976345943418</v>
       </c>
       <c r="Q29" t="n">
-        <v>3440.041098354742</v>
+        <v>3440.041098354741</v>
       </c>
       <c r="R29" t="n">
-        <v>3484.032308076158</v>
+        <v>3484.032308076157</v>
       </c>
       <c r="S29" t="n">
-        <v>3412.610085895777</v>
+        <v>3412.610085895776</v>
       </c>
       <c r="T29" t="n">
         <v>3294.990147591252</v>
@@ -6534,31 +6534,31 @@
         <v>226.3821508121852</v>
       </c>
       <c r="H30" t="n">
-        <v>128.9894824878028</v>
+        <v>128.9894824878027</v>
       </c>
       <c r="I30" t="n">
-        <v>69.68064616152317</v>
+        <v>69.68064616152314</v>
       </c>
       <c r="J30" t="n">
-        <v>69.68064616152317</v>
+        <v>154.3375552911035</v>
       </c>
       <c r="K30" t="n">
-        <v>69.68064616152317</v>
+        <v>425.5363159435068</v>
       </c>
       <c r="L30" t="n">
-        <v>491.5843242241906</v>
+        <v>847.4399940061742</v>
       </c>
       <c r="M30" t="n">
-        <v>1042.062531510858</v>
+        <v>1397.918201292842</v>
       </c>
       <c r="N30" t="n">
-        <v>1620.505161952644</v>
+        <v>1558.293324719169</v>
       </c>
       <c r="O30" t="n">
-        <v>2074.158929299208</v>
+        <v>2011.947092065733</v>
       </c>
       <c r="P30" t="n">
-        <v>2425.576954230413</v>
+        <v>2363.365116996938</v>
       </c>
       <c r="Q30" t="n">
         <v>2554.107268235009</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>428.4438499794491</v>
+        <v>428.4438499794485</v>
       </c>
       <c r="C31" t="n">
-        <v>363.4107746238686</v>
+        <v>363.4107746238682</v>
       </c>
       <c r="D31" t="n">
-        <v>314.9217756343707</v>
+        <v>314.9217756343703</v>
       </c>
       <c r="E31" t="n">
-        <v>267.4956555784289</v>
+        <v>267.4956555784285</v>
       </c>
       <c r="F31" t="n">
-        <v>219.5978947869453</v>
+        <v>219.597894786945</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4819788676577</v>
+        <v>155.4819788676575</v>
       </c>
       <c r="H31" t="n">
-        <v>102.6565722156749</v>
+        <v>102.6565722156746</v>
       </c>
       <c r="I31" t="n">
-        <v>69.68064616152317</v>
+        <v>69.68064616152314</v>
       </c>
       <c r="J31" t="n">
         <v>128.629750245577</v>
       </c>
       <c r="K31" t="n">
-        <v>289.89385881614</v>
+        <v>289.8938588161399</v>
       </c>
       <c r="L31" t="n">
-        <v>525.1965007146607</v>
+        <v>525.1965007146598</v>
       </c>
       <c r="M31" t="n">
-        <v>779.6356212282436</v>
+        <v>779.6356212282428</v>
       </c>
       <c r="N31" t="n">
         <v>1033.696466819432</v>
       </c>
       <c r="O31" t="n">
-        <v>1265.269014596845</v>
+        <v>1265.269014596844</v>
       </c>
       <c r="P31" t="n">
-        <v>1456.928945797883</v>
+        <v>1456.928945797882</v>
       </c>
       <c r="Q31" t="n">
-        <v>1539.792619509458</v>
+        <v>1539.792619509457</v>
       </c>
       <c r="R31" t="n">
-        <v>1504.787932033749</v>
+        <v>1504.787932033748</v>
       </c>
       <c r="S31" t="n">
-        <v>1399.511419640595</v>
+        <v>1399.511419640594</v>
       </c>
       <c r="T31" t="n">
         <v>1271.859370722266</v>
       </c>
       <c r="U31" t="n">
-        <v>1089.264076586658</v>
+        <v>1089.264076586657</v>
       </c>
       <c r="V31" t="n">
-        <v>933.1116663278196</v>
+        <v>933.111666327819</v>
       </c>
       <c r="W31" t="n">
-        <v>751.538159027958</v>
+        <v>751.5381590279575</v>
       </c>
       <c r="X31" t="n">
-        <v>624.8685891060732</v>
+        <v>624.8685891060726</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.4163244810896</v>
+        <v>507.416324481089</v>
       </c>
     </row>
     <row r="32">
@@ -6674,70 +6674,70 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1539.359173906898</v>
+        <v>1539.359173906897</v>
       </c>
       <c r="C32" t="n">
-        <v>1297.478925772174</v>
+        <v>1297.478925772173</v>
       </c>
       <c r="D32" t="n">
         <v>1064.708471531865</v>
       </c>
       <c r="E32" t="n">
-        <v>809.9762621704402</v>
+        <v>809.9762621704401</v>
       </c>
       <c r="F32" t="n">
-        <v>535.8785820130788</v>
+        <v>535.8785820130785</v>
       </c>
       <c r="G32" t="n">
-        <v>260.3206505529558</v>
+        <v>260.3206505529556</v>
       </c>
       <c r="H32" t="n">
-        <v>72.59715858840863</v>
+        <v>72.59715858840867</v>
       </c>
       <c r="I32" t="n">
-        <v>58.82229421772863</v>
+        <v>58.8222942177286</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7930401093308</v>
+        <v>305.2820512454215</v>
       </c>
       <c r="K32" t="n">
-        <v>473.3401214330954</v>
+        <v>744.0955782420581</v>
       </c>
       <c r="L32" t="n">
-        <v>897.4059473312875</v>
+        <v>1168.16140414025</v>
       </c>
       <c r="M32" t="n">
-        <v>1508.899556877011</v>
+        <v>1646.166002549882</v>
       </c>
       <c r="N32" t="n">
-        <v>2110.634386705967</v>
+        <v>2110.634386705966</v>
       </c>
       <c r="O32" t="n">
-        <v>2496.975721770109</v>
+        <v>2496.975721770108</v>
       </c>
       <c r="P32" t="n">
         <v>2794.551653063611</v>
       </c>
       <c r="Q32" t="n">
-        <v>2941.114710886431</v>
+        <v>2941.11471088643</v>
       </c>
       <c r="R32" t="n">
-        <v>2941.114710886431</v>
+        <v>2941.11471088643</v>
       </c>
       <c r="S32" t="n">
-        <v>2905.163105055779</v>
+        <v>2905.163105055778</v>
       </c>
       <c r="T32" t="n">
         <v>2823.013783100984</v>
       </c>
       <c r="U32" t="n">
-        <v>2708.221360911704</v>
+        <v>2708.221360911703</v>
       </c>
       <c r="V32" t="n">
-        <v>2511.295597340113</v>
+        <v>2511.295597340112</v>
       </c>
       <c r="W32" t="n">
-        <v>2288.814177730182</v>
+        <v>2288.814177730181</v>
       </c>
       <c r="X32" t="n">
         <v>2046.837547784143</v>
@@ -6774,22 +6774,22 @@
         <v>118.1311305440082</v>
       </c>
       <c r="I33" t="n">
-        <v>58.82229421772863</v>
+        <v>58.8222942177286</v>
       </c>
       <c r="J33" t="n">
-        <v>58.82229421772863</v>
+        <v>143.479203347309</v>
       </c>
       <c r="K33" t="n">
-        <v>330.0210548701318</v>
+        <v>414.6779639997122</v>
       </c>
       <c r="L33" t="n">
-        <v>751.9247329327993</v>
+        <v>836.5816420623796</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.402940219467</v>
+        <v>968.9923423335895</v>
       </c>
       <c r="N33" t="n">
-        <v>1880.845570661252</v>
+        <v>1547.434972775375</v>
       </c>
       <c r="O33" t="n">
         <v>2001.088740121939</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>171.7858738831301</v>
+        <v>171.7858738831304</v>
       </c>
       <c r="C34" t="n">
-        <v>142.2234148772785</v>
+        <v>142.2234148772787</v>
       </c>
       <c r="D34" t="n">
-        <v>129.2050322375093</v>
+        <v>129.2050322375095</v>
       </c>
       <c r="E34" t="n">
-        <v>117.2495285312962</v>
+        <v>117.2495285312964</v>
       </c>
       <c r="F34" t="n">
-        <v>104.8223840895415</v>
+        <v>104.8223840895416</v>
       </c>
       <c r="G34" t="n">
-        <v>76.17708451998271</v>
+        <v>76.17708451998276</v>
       </c>
       <c r="H34" t="n">
-        <v>58.82229421772863</v>
+        <v>58.8222942177286</v>
       </c>
       <c r="I34" t="n">
-        <v>58.82229421772863</v>
+        <v>58.8222942177286</v>
       </c>
       <c r="J34" t="n">
-        <v>58.82229421772863</v>
+        <v>58.8222942177286</v>
       </c>
       <c r="K34" t="n">
         <v>117.5847081997887</v>
@@ -6865,43 +6865,43 @@
         <v>250.3856555098066</v>
       </c>
       <c r="M34" t="n">
-        <v>539.5895271077588</v>
+        <v>402.3230814348868</v>
       </c>
       <c r="N34" t="n">
-        <v>691.148678110445</v>
+        <v>553.8822324375728</v>
       </c>
       <c r="O34" t="n">
-        <v>875.2067885270651</v>
+        <v>757.1217068416947</v>
       </c>
       <c r="P34" t="n">
-        <v>964.3650251395998</v>
+        <v>846.2799434542294</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.3650251395998</v>
+        <v>963.9083682501739</v>
       </c>
       <c r="R34" t="n">
-        <v>964.3650251395998</v>
+        <v>964.3650251396007</v>
       </c>
       <c r="S34" t="n">
-        <v>894.5591290961743</v>
+        <v>894.5591290961751</v>
       </c>
       <c r="T34" t="n">
-        <v>802.3776965275747</v>
+        <v>802.3776965275754</v>
       </c>
       <c r="U34" t="n">
-        <v>655.2530187416949</v>
+        <v>655.2530187416954</v>
       </c>
       <c r="V34" t="n">
-        <v>534.5712248325856</v>
+        <v>534.571224832586</v>
       </c>
       <c r="W34" t="n">
-        <v>388.4683338824527</v>
+        <v>388.4683338824532</v>
       </c>
       <c r="X34" t="n">
-        <v>297.2693803102966</v>
+        <v>297.269380310297</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.2877320350418</v>
+        <v>215.2877320350422</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6917,31 @@
         <v>1186.399656820292</v>
       </c>
       <c r="D35" t="n">
-        <v>971.9849591827181</v>
+        <v>971.9849591827178</v>
       </c>
       <c r="E35" t="n">
-        <v>735.6085064240276</v>
+        <v>735.6085064240272</v>
       </c>
       <c r="F35" t="n">
-        <v>479.8665828694006</v>
+        <v>479.8665828694002</v>
       </c>
       <c r="G35" t="n">
         <v>222.6644080120114</v>
       </c>
       <c r="H35" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="I35" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="J35" t="n">
-        <v>166.2674185418011</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K35" t="n">
-        <v>467.8144998655658</v>
+        <v>467.8144998655655</v>
       </c>
       <c r="L35" t="n">
-        <v>891.8803257637579</v>
+        <v>891.8803257637576</v>
       </c>
       <c r="M35" t="n">
         <v>1369.88492417339</v>
@@ -6953,13 +6953,13 @@
         <v>2220.694643393615</v>
       </c>
       <c r="P35" t="n">
-        <v>2518.270574687117</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q35" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R35" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S35" t="n">
         <v>2647.237783282021</v>
@@ -6977,7 +6977,7 @@
         <v>2104.311882367362</v>
       </c>
       <c r="X35" t="n">
-        <v>1880.691009024058</v>
+        <v>1880.691009024057</v>
       </c>
       <c r="Y35" t="n">
         <v>1645.558420735098</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.7272604704568</v>
+        <v>920.7272604704571</v>
       </c>
       <c r="C36" t="n">
-        <v>759.0235877114116</v>
+        <v>759.0235877114118</v>
       </c>
       <c r="D36" t="n">
-        <v>620.1849507016236</v>
+        <v>620.1849507016238</v>
       </c>
       <c r="E36" t="n">
-        <v>473.1569407584949</v>
+        <v>473.156940758495</v>
       </c>
       <c r="F36" t="n">
         <v>338.4631427083693</v>
@@ -7011,16 +7011,16 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I36" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9535817797791</v>
+        <v>137.9535817797792</v>
       </c>
       <c r="K36" t="n">
         <v>409.1523424321824</v>
       </c>
       <c r="L36" t="n">
-        <v>831.0560204948498</v>
+        <v>831.0560204948499</v>
       </c>
       <c r="M36" t="n">
         <v>1381.534227781518</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.79291802014004</v>
+        <v>74.79291802014005</v>
       </c>
       <c r="C37" t="n">
-        <v>63.58621561702296</v>
+        <v>63.58621561702298</v>
       </c>
       <c r="D37" t="n">
-        <v>63.58621561702296</v>
+        <v>63.58621561702298</v>
       </c>
       <c r="E37" t="n">
-        <v>63.58621561702296</v>
+        <v>63.58621561702298</v>
       </c>
       <c r="F37" t="n">
-        <v>63.58621561702296</v>
+        <v>63.58621561702298</v>
       </c>
       <c r="G37" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="H37" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="I37" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="J37" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="K37" t="n">
         <v>112.0590866322588</v>
@@ -7108,7 +7108,7 @@
         <v>548.356610870043</v>
       </c>
       <c r="O37" t="n">
-        <v>677.427464058953</v>
+        <v>677.4274640589529</v>
       </c>
       <c r="P37" t="n">
         <v>766.5857006714875</v>
@@ -7138,7 +7138,7 @@
         <v>163.5649112418375</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.93901956931722</v>
+        <v>99.93901956931724</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>1409.924148352281</v>
       </c>
       <c r="C38" t="n">
-        <v>1186.39965682029</v>
+        <v>1186.399656820291</v>
       </c>
       <c r="D38" t="n">
-        <v>971.9849591827167</v>
+        <v>971.9849591827176</v>
       </c>
       <c r="E38" t="n">
-        <v>735.6085064240261</v>
+        <v>735.6085064240274</v>
       </c>
       <c r="F38" t="n">
-        <v>479.8665828693991</v>
+        <v>479.8665828694006</v>
       </c>
       <c r="G38" t="n">
         <v>222.6644080120114</v>
@@ -7172,19 +7172,19 @@
         <v>53.29667265019874</v>
       </c>
       <c r="J38" t="n">
-        <v>166.2674185418011</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K38" t="n">
-        <v>467.8144998655658</v>
+        <v>467.8144998655655</v>
       </c>
       <c r="L38" t="n">
-        <v>891.8803257637579</v>
+        <v>891.8803257637576</v>
       </c>
       <c r="M38" t="n">
         <v>1369.88492417339</v>
       </c>
       <c r="N38" t="n">
-        <v>1834.353308329474</v>
+        <v>1834.353308329473</v>
       </c>
       <c r="O38" t="n">
         <v>2220.694643393615</v>
@@ -7202,22 +7202,22 @@
         <v>2647.237783282019</v>
       </c>
       <c r="T38" t="n">
-        <v>2583.444217929958</v>
+        <v>2583.44421792996</v>
       </c>
       <c r="U38" t="n">
-        <v>2487.007552343412</v>
+        <v>2487.007552343414</v>
       </c>
       <c r="V38" t="n">
-        <v>2308.437545374557</v>
+        <v>2308.437545374558</v>
       </c>
       <c r="W38" t="n">
-        <v>2104.31188236736</v>
+        <v>2104.311882367361</v>
       </c>
       <c r="X38" t="n">
-        <v>1880.691009024056</v>
+        <v>1880.691009024057</v>
       </c>
       <c r="Y38" t="n">
-        <v>1645.558420735097</v>
+        <v>1645.558420735098</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>137.9535817797791</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1523424321824</v>
+        <v>342.5028603479298</v>
       </c>
       <c r="L39" t="n">
-        <v>831.0560204948498</v>
+        <v>764.4065384105972</v>
       </c>
       <c r="M39" t="n">
-        <v>963.4667207660596</v>
+        <v>1314.884745697265</v>
       </c>
       <c r="N39" t="n">
-        <v>1541.909351207845</v>
+        <v>1893.32737613905</v>
       </c>
       <c r="O39" t="n">
-        <v>1995.563118554409</v>
+        <v>2346.981143485614</v>
       </c>
       <c r="P39" t="n">
         <v>2346.981143485614</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.79291802013998</v>
+        <v>120.852602236894</v>
       </c>
       <c r="C40" t="n">
-        <v>63.58621561702293</v>
+        <v>109.645899833777</v>
       </c>
       <c r="D40" t="n">
-        <v>63.58621561702293</v>
+        <v>109.645899833777</v>
       </c>
       <c r="E40" t="n">
-        <v>63.58621561702293</v>
+        <v>109.645899833777</v>
       </c>
       <c r="F40" t="n">
-        <v>63.58621561702293</v>
+        <v>109.645899833777</v>
       </c>
       <c r="G40" t="n">
         <v>53.29667265019874</v>
@@ -7339,13 +7339,13 @@
         <v>244.8600339422767</v>
       </c>
       <c r="M40" t="n">
-        <v>396.797459867357</v>
+        <v>396.7974598673569</v>
       </c>
       <c r="N40" t="n">
-        <v>548.356610870043</v>
+        <v>548.3566108700429</v>
       </c>
       <c r="O40" t="n">
-        <v>677.427464058953</v>
+        <v>677.4274640589529</v>
       </c>
       <c r="P40" t="n">
         <v>766.5857006714875</v>
@@ -7357,25 +7357,25 @@
         <v>766.5857006714875</v>
       </c>
       <c r="S40" t="n">
-        <v>669.0758770140421</v>
+        <v>715.1355612307966</v>
       </c>
       <c r="T40" t="n">
-        <v>595.2502010481771</v>
+        <v>641.3098852649315</v>
       </c>
       <c r="U40" t="n">
-        <v>466.4812798650319</v>
+        <v>512.5409640817861</v>
       </c>
       <c r="V40" t="n">
-        <v>364.1552425586572</v>
+        <v>410.2149267754114</v>
       </c>
       <c r="W40" t="n">
-        <v>236.408108211259</v>
+        <v>282.4677924280131</v>
       </c>
       <c r="X40" t="n">
-        <v>163.5649112418374</v>
+        <v>209.6245954585915</v>
       </c>
       <c r="Y40" t="n">
-        <v>99.93901956931714</v>
+        <v>145.9987037860712</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1409.924148352282</v>
+        <v>1409.924148352281</v>
       </c>
       <c r="C41" t="n">
-        <v>1186.399656820292</v>
+        <v>1186.399656820291</v>
       </c>
       <c r="D41" t="n">
-        <v>971.9849591827181</v>
+        <v>971.9849591827176</v>
       </c>
       <c r="E41" t="n">
-        <v>735.6085064240276</v>
+        <v>735.6085064240272</v>
       </c>
       <c r="F41" t="n">
-        <v>479.8665828694006</v>
+        <v>479.8665828694003</v>
       </c>
       <c r="G41" t="n">
         <v>222.6644080120113</v>
@@ -7409,19 +7409,19 @@
         <v>53.29667265019874</v>
       </c>
       <c r="J41" t="n">
-        <v>166.2674185418005</v>
+        <v>166.2674185418011</v>
       </c>
       <c r="K41" t="n">
-        <v>467.814499865565</v>
+        <v>467.8144998655658</v>
       </c>
       <c r="L41" t="n">
-        <v>891.8803257637571</v>
+        <v>891.8803257637579</v>
       </c>
       <c r="M41" t="n">
-        <v>1369.884924173389</v>
+        <v>1369.88492417339</v>
       </c>
       <c r="N41" t="n">
-        <v>1834.353308329473</v>
+        <v>1834.353308329474</v>
       </c>
       <c r="O41" t="n">
         <v>2220.694643393615</v>
@@ -7500,13 +7500,13 @@
         <v>1381.534227781518</v>
       </c>
       <c r="N42" t="n">
-        <v>1541.909351207845</v>
+        <v>1732.651502445915</v>
       </c>
       <c r="O42" t="n">
-        <v>1995.563118554409</v>
+        <v>2186.305269792479</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.981143485614</v>
+        <v>2537.723294723684</v>
       </c>
       <c r="Q42" t="n">
         <v>2537.723294723684</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.79291802013987</v>
+        <v>74.79291802013981</v>
       </c>
       <c r="C43" t="n">
-        <v>63.58621561702287</v>
+        <v>63.58621561702284</v>
       </c>
       <c r="D43" t="n">
-        <v>63.58621561702287</v>
+        <v>63.58621561702284</v>
       </c>
       <c r="E43" t="n">
-        <v>63.58621561702287</v>
+        <v>63.58621561702284</v>
       </c>
       <c r="F43" t="n">
-        <v>63.58621561702287</v>
+        <v>63.58621561702284</v>
       </c>
       <c r="G43" t="n">
         <v>53.29667265019874</v>
@@ -7576,13 +7576,13 @@
         <v>244.8600339422767</v>
       </c>
       <c r="M43" t="n">
-        <v>396.797459867357</v>
+        <v>396.7974598673569</v>
       </c>
       <c r="N43" t="n">
-        <v>548.356610870043</v>
+        <v>548.3566108700429</v>
       </c>
       <c r="O43" t="n">
-        <v>677.427464058953</v>
+        <v>677.4274640589529</v>
       </c>
       <c r="P43" t="n">
         <v>766.5857006714875</v>
@@ -7591,28 +7591,28 @@
         <v>766.5857006714875</v>
       </c>
       <c r="R43" t="n">
-        <v>720.5260164547327</v>
+        <v>720.5260164547324</v>
       </c>
       <c r="S43" t="n">
-        <v>669.0758770140418</v>
+        <v>669.0758770140416</v>
       </c>
       <c r="T43" t="n">
-        <v>595.2502010481768</v>
+        <v>595.2502010481766</v>
       </c>
       <c r="U43" t="n">
-        <v>466.4812798650315</v>
+        <v>466.4812798650314</v>
       </c>
       <c r="V43" t="n">
-        <v>364.1552425586568</v>
+        <v>364.1552425586567</v>
       </c>
       <c r="W43" t="n">
-        <v>236.4081082112587</v>
+        <v>236.4081082112585</v>
       </c>
       <c r="X43" t="n">
-        <v>163.5649112418372</v>
+        <v>163.5649112418371</v>
       </c>
       <c r="Y43" t="n">
-        <v>99.93901956931697</v>
+        <v>99.93901956931688</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1409.92414835228</v>
+        <v>1409.924148352281</v>
       </c>
       <c r="C44" t="n">
-        <v>1186.39965682029</v>
+        <v>1186.399656820291</v>
       </c>
       <c r="D44" t="n">
-        <v>971.9849591827167</v>
+        <v>971.9849591827171</v>
       </c>
       <c r="E44" t="n">
-        <v>735.608506424026</v>
+        <v>735.6085064240269</v>
       </c>
       <c r="F44" t="n">
-        <v>479.8665828693992</v>
+        <v>479.8665828694</v>
       </c>
       <c r="G44" t="n">
         <v>222.6644080120114</v>
@@ -7643,31 +7643,31 @@
         <v>53.29667265019874</v>
       </c>
       <c r="I44" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019829</v>
       </c>
       <c r="J44" t="n">
-        <v>166.2674185418009</v>
+        <v>166.2674185418005</v>
       </c>
       <c r="K44" t="n">
-        <v>467.8144998655655</v>
+        <v>467.814499865565</v>
       </c>
       <c r="L44" t="n">
-        <v>891.8803257637576</v>
+        <v>891.8803257637571</v>
       </c>
       <c r="M44" t="n">
-        <v>1369.88492417339</v>
+        <v>1369.884924173389</v>
       </c>
       <c r="N44" t="n">
-        <v>1834.353308329474</v>
+        <v>1834.353308329473</v>
       </c>
       <c r="O44" t="n">
         <v>2220.694643393615</v>
       </c>
       <c r="P44" t="n">
-        <v>2518.270574687118</v>
+        <v>2518.270574687117</v>
       </c>
       <c r="Q44" t="n">
-        <v>2664.833632509938</v>
+        <v>2664.833632509937</v>
       </c>
       <c r="R44" t="n">
         <v>2664.833632509937</v>
@@ -7676,7 +7676,7 @@
         <v>2647.237783282019</v>
       </c>
       <c r="T44" t="n">
-        <v>2583.444217929958</v>
+        <v>2583.444217929959</v>
       </c>
       <c r="U44" t="n">
         <v>2487.007552343413</v>
@@ -7728,22 +7728,22 @@
         <v>53.29667265019874</v>
       </c>
       <c r="K45" t="n">
-        <v>324.495433302602</v>
+        <v>181.8269866547947</v>
       </c>
       <c r="L45" t="n">
-        <v>746.3991113652694</v>
+        <v>603.7306647174621</v>
       </c>
       <c r="M45" t="n">
-        <v>1296.877318651937</v>
+        <v>1154.20887200413</v>
       </c>
       <c r="N45" t="n">
-        <v>1541.909351207845</v>
+        <v>1732.651502445915</v>
       </c>
       <c r="O45" t="n">
-        <v>1995.563118554409</v>
+        <v>2186.305269792479</v>
       </c>
       <c r="P45" t="n">
-        <v>2346.981143485614</v>
+        <v>2537.723294723684</v>
       </c>
       <c r="Q45" t="n">
         <v>2537.723294723684</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>120.852602236894</v>
+        <v>74.79291802013992</v>
       </c>
       <c r="C46" t="n">
-        <v>109.645899833777</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="D46" t="n">
-        <v>109.645899833777</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="E46" t="n">
-        <v>109.645899833777</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="F46" t="n">
-        <v>109.645899833777</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="G46" t="n">
         <v>53.29667265019874</v>
@@ -7813,43 +7813,43 @@
         <v>244.8600339422767</v>
       </c>
       <c r="M46" t="n">
-        <v>396.797459867357</v>
+        <v>396.7974598673569</v>
       </c>
       <c r="N46" t="n">
-        <v>548.356610870043</v>
+        <v>548.3566108700429</v>
       </c>
       <c r="O46" t="n">
-        <v>677.427464058953</v>
+        <v>677.4274640589529</v>
       </c>
       <c r="P46" t="n">
         <v>766.5857006714875</v>
       </c>
       <c r="Q46" t="n">
-        <v>766.5857006714875</v>
+        <v>746.548948424852</v>
       </c>
       <c r="R46" t="n">
-        <v>766.5857006714875</v>
+        <v>746.548948424852</v>
       </c>
       <c r="S46" t="n">
-        <v>715.1355612307966</v>
+        <v>695.0988089841611</v>
       </c>
       <c r="T46" t="n">
-        <v>641.3098852649315</v>
+        <v>595.250201048177</v>
       </c>
       <c r="U46" t="n">
-        <v>512.5409640817861</v>
+        <v>466.4812798650318</v>
       </c>
       <c r="V46" t="n">
-        <v>410.2149267754114</v>
+        <v>364.1552425586571</v>
       </c>
       <c r="W46" t="n">
-        <v>282.4677924280131</v>
+        <v>236.4081082112588</v>
       </c>
       <c r="X46" t="n">
-        <v>209.6245954585915</v>
+        <v>163.5649112418373</v>
       </c>
       <c r="Y46" t="n">
-        <v>145.9987037860712</v>
+        <v>99.93901956931705</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M8" t="n">
         <v>322.8857137945909</v>
       </c>
       <c r="N8" t="n">
-        <v>322.1275134696619</v>
+        <v>221.2573825015465</v>
       </c>
       <c r="O8" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>318.1221922153587</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,25 +8532,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685796</v>
       </c>
       <c r="M9" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>236.9605242319105</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>251.5888479085429</v>
+        <v>246.1048317753133</v>
       </c>
       <c r="P9" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423243</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8769,10 +8769,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>69.86666604321769</v>
       </c>
       <c r="L12" t="n">
-        <v>59.80203776777357</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>124.7482050030138</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9012,7 +9012,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>183.1261717482766</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9021,10 +9021,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>184.3800277396076</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>80.4316344221894</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236973</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9170,7 +9170,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406819</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>78.4063165187129</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,19 +9249,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>375.7950113826911</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>175.2426333568418</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>80.43163442218949</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>78.4063165187129</v>
       </c>
       <c r="K21" t="n">
-        <v>276.4820989403398</v>
+        <v>199.6952660478601</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9495,10 +9495,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>59.03389728120605</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>80.4316344221894</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236941</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578763</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>78.40631651871291</v>
+        <v>78.4063165187129</v>
       </c>
       <c r="K24" t="n">
-        <v>199.6952660478602</v>
+        <v>199.6952660478601</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>80.43163442218942</v>
+        <v>80.4316344221894</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>78.4063165187129</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>199.6952660478599</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>200.8546755198946</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>80.4316344221894</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>78.40631651871288</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>69.86666604321766</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>200.8546755198943</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.2602344268316</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>78.40631651871288</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10434,13 +10434,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>183.126171748275</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>175.2426333568418</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10832,7 +10832,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355789</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10902,13 +10902,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>276.4820989403395</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>183.1261717482749</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -10917,7 +10917,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>59.03389728120602</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>200.8546755198943</v>
+        <v>393.5235151543086</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>80.4316344221894</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>78.40631651871288</v>
+        <v>78.4063165187129</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>199.6952660478601</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>286.366704943713</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>80.4316344221894</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>55.09364233438892</v>
       </c>
       <c r="C11" t="n">
-        <v>294.9297453859919</v>
+        <v>294.929745385992</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>285.91104943052</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>142.1968135613058</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>136.7961284678621</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>169.1127977000021</v>
       </c>
       <c r="V11" t="n">
-        <v>250.4248056684893</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>275.7249051464462</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>295.0251633791929</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>98.53513930300736</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>68.35649854598623</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>67.30424840176568</v>
       </c>
       <c r="F13" t="n">
-        <v>14.77568633951083</v>
+        <v>67.77117272995199</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>83.8271463064779</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>72.64954213184632</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>124.5761368156059</v>
+        <v>26.77350127837843</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>200.1101617732461</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>145.7552637690492</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>306.9184284283102</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>294.929745385992</v>
+        <v>278.8975240359676</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>22.68966554039879</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>169.1127977000021</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>250.4248056684894</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>275.7249051464463</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>295.0251633791929</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.4217611753916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>98.53513930300737</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.59506109752833</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>68.35649854598624</v>
       </c>
       <c r="E16" t="n">
-        <v>67.30424840176563</v>
+        <v>67.30424840176569</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>67.771172729952</v>
       </c>
       <c r="G16" t="n">
-        <v>83.82714630647787</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>72.64954213184627</v>
+        <v>72.64954213184632</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99855633999324</v>
+        <v>52.99855633999329</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>55.00703014733519</v>
       </c>
       <c r="S16" t="n">
-        <v>62.68249174828177</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>145.7552637690493</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-8.687450758770864e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26317,43 +26317,43 @@
         <v>172322.2420891434</v>
       </c>
       <c r="D2" t="n">
-        <v>172715.4136111908</v>
+        <v>172715.4136111909</v>
       </c>
       <c r="E2" t="n">
-        <v>150392.9438159239</v>
+        <v>150392.9438159241</v>
       </c>
       <c r="F2" t="n">
-        <v>150392.9438159239</v>
+        <v>150392.9438159241</v>
       </c>
       <c r="G2" t="n">
-        <v>172715.4136111908</v>
+        <v>172715.413611191</v>
       </c>
       <c r="H2" t="n">
         <v>172715.4136111909</v>
       </c>
       <c r="I2" t="n">
-        <v>172715.4136111909</v>
+        <v>172715.413611191</v>
       </c>
       <c r="J2" t="n">
-        <v>172715.4136111913</v>
+        <v>172715.4136111912</v>
       </c>
       <c r="K2" t="n">
         <v>172715.4136111912</v>
       </c>
       <c r="L2" t="n">
-        <v>172715.4136111908</v>
+        <v>172715.4136111909</v>
       </c>
       <c r="M2" t="n">
         <v>172715.4136111909</v>
       </c>
       <c r="N2" t="n">
-        <v>172715.4136111909</v>
+        <v>172715.413611191</v>
       </c>
       <c r="O2" t="n">
         <v>172715.4136111909</v>
       </c>
       <c r="P2" t="n">
-        <v>172715.413611191</v>
+        <v>172715.4136111909</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>42161.62330376123</v>
       </c>
       <c r="E3" t="n">
-        <v>322386.072230255</v>
+        <v>322386.0722302552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>58912.39901545761</v>
+        <v>58912.39901545767</v>
       </c>
       <c r="H3" t="n">
-        <v>2.067456676968504e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>77501.85774473402</v>
+        <v>77501.85774473399</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>87005.12716444281</v>
+        <v>87005.12716444279</v>
       </c>
       <c r="M3" t="n">
-        <v>129522.6626819161</v>
+        <v>129522.6626819163</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23917.25317727198</v>
+        <v>23917.25317727197</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>362257.2597934403</v>
       </c>
       <c r="E4" t="n">
-        <v>210799.9012866809</v>
+        <v>210799.9012866808</v>
       </c>
       <c r="F4" t="n">
         <v>210799.9012866808</v>
@@ -26436,16 +26436,16 @@
         <v>267240.5926786489</v>
       </c>
       <c r="I4" t="n">
-        <v>267240.5926786489</v>
+        <v>267240.5926786488</v>
       </c>
       <c r="J4" t="n">
-        <v>268306.5012814332</v>
+        <v>268306.5012814331</v>
       </c>
       <c r="K4" t="n">
         <v>268306.5012814332</v>
       </c>
       <c r="L4" t="n">
-        <v>267580.4434132221</v>
+        <v>267580.443413222</v>
       </c>
       <c r="M4" t="n">
         <v>267240.5926786488</v>
@@ -26454,7 +26454,7 @@
         <v>267240.5926786488</v>
       </c>
       <c r="O4" t="n">
-        <v>267240.5926786489</v>
+        <v>267240.5926786488</v>
       </c>
       <c r="P4" t="n">
         <v>267240.5926786488</v>
@@ -26476,40 +26476,40 @@
         <v>41879.94747728385</v>
       </c>
       <c r="E5" t="n">
-        <v>50142.9602313342</v>
+        <v>50142.96023133421</v>
       </c>
       <c r="F5" t="n">
-        <v>50142.96023133422</v>
+        <v>50142.96023133421</v>
       </c>
       <c r="G5" t="n">
-        <v>56333.84332237235</v>
+        <v>56333.84332237236</v>
       </c>
       <c r="H5" t="n">
         <v>56333.84332237235</v>
       </c>
       <c r="I5" t="n">
+        <v>56333.84332237233</v>
+      </c>
+      <c r="J5" t="n">
+        <v>64305.78513671565</v>
+      </c>
+      <c r="K5" t="n">
+        <v>64305.78513671566</v>
+      </c>
+      <c r="L5" t="n">
+        <v>59005.59711287809</v>
+      </c>
+      <c r="M5" t="n">
         <v>56333.84332237236</v>
       </c>
-      <c r="J5" t="n">
-        <v>64305.78513671567</v>
-      </c>
-      <c r="K5" t="n">
-        <v>64305.78513671567</v>
-      </c>
-      <c r="L5" t="n">
-        <v>59005.59711287812</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>56333.84332237234</v>
-      </c>
-      <c r="N5" t="n">
-        <v>56333.84332237235</v>
       </c>
       <c r="O5" t="n">
         <v>56333.84332237236</v>
       </c>
       <c r="P5" t="n">
-        <v>56333.84332237234</v>
+        <v>56333.84332237235</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-244763.7682827975</v>
+        <v>-244768.1368552647</v>
       </c>
       <c r="C6" t="n">
-        <v>-244763.7682827975</v>
+        <v>-244768.1368552647</v>
       </c>
       <c r="D6" t="n">
-        <v>-273583.4169632947</v>
+        <v>-273583.4169632946</v>
       </c>
       <c r="E6" t="n">
-        <v>-432935.9899323462</v>
+        <v>-433184.0173745158</v>
       </c>
       <c r="F6" t="n">
-        <v>-110549.9177020911</v>
+        <v>-110797.9451442605</v>
       </c>
       <c r="G6" t="n">
-        <v>-209771.4214052881</v>
+        <v>-209771.4214052879</v>
       </c>
       <c r="H6" t="n">
-        <v>-150859.0223898306</v>
+        <v>-150859.0223898304</v>
       </c>
       <c r="I6" t="n">
-        <v>-150859.0223898304</v>
+        <v>-150859.0223898302</v>
       </c>
       <c r="J6" t="n">
         <v>-237398.7305516916</v>
       </c>
       <c r="K6" t="n">
-        <v>-159896.8728069576</v>
+        <v>-159896.8728069577</v>
       </c>
       <c r="L6" t="n">
-        <v>-240875.7540793522</v>
+        <v>-240875.7540793519</v>
       </c>
       <c r="M6" t="n">
-        <v>-280381.6850717464</v>
+        <v>-280381.6850717465</v>
       </c>
       <c r="N6" t="n">
-        <v>-150859.0223898303</v>
+        <v>-150859.0223898301</v>
       </c>
       <c r="O6" t="n">
-        <v>-174776.2755671023</v>
+        <v>-174776.2755671022</v>
       </c>
       <c r="P6" t="n">
-        <v>-150859.02238983</v>
+        <v>-150859.0223898302</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="F2" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="G2" t="n">
         <v>156.8251744638507</v>
@@ -26710,7 +26710,7 @@
         <v>103.5370652409119</v>
       </c>
       <c r="K2" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="L2" t="n">
         <v>138.6529754271434</v>
@@ -26725,7 +26725,7 @@
         <v>156.8251744638507</v>
       </c>
       <c r="P2" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="3">
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>121.2952530376071</v>
+        <v>121.2952530376074</v>
       </c>
       <c r="F3" t="n">
-        <v>121.2952530376071</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="G3" t="n">
-        <v>121.2952530376071</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="H3" t="n">
-        <v>121.2952530376074</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="I3" t="n">
-        <v>121.2952530376074</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="J3" t="n">
-        <v>121.2952530376074</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="K3" t="n">
         <v>121.2952530376075</v>
@@ -26796,10 +26796,10 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
-        <v>666.2084081274839</v>
+        <v>666.2084081274842</v>
       </c>
       <c r="F4" t="n">
-        <v>666.2084081274843</v>
+        <v>666.2084081274842</v>
       </c>
       <c r="G4" t="n">
         <v>666.2084081274843</v>
@@ -26808,19 +26808,19 @@
         <v>666.2084081274842</v>
       </c>
       <c r="I4" t="n">
-        <v>666.2084081274843</v>
+        <v>666.2084081274839</v>
       </c>
       <c r="J4" t="n">
-        <v>871.0080770190395</v>
+        <v>871.0080770190393</v>
       </c>
       <c r="K4" t="n">
-        <v>871.0080770190395</v>
+        <v>871.0080770190393</v>
       </c>
       <c r="L4" t="n">
-        <v>735.2786777216078</v>
+        <v>735.2786777216076</v>
       </c>
       <c r="M4" t="n">
-        <v>666.2084081274843</v>
+        <v>666.2084081274845</v>
       </c>
       <c r="N4" t="n">
         <v>666.2084081274843</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>73.64049876932201</v>
+        <v>73.64049876932209</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.89656647158992</v>
+        <v>29.89656647158985</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
         <v>108.7564089555535</v>
       </c>
       <c r="M2" t="n">
-        <v>18.17219903670718</v>
+        <v>18.17219903670724</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.89656647158998</v>
+        <v>29.89656647158996</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>121.2952530376071</v>
+        <v>121.2952530376074</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
-        <v>530.4790088300522</v>
+        <v>530.4790088300524</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>204.7996688915553</v>
+        <v>204.7996688915554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>461.4087392359287</v>
+        <v>461.4087392359294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73.64049876932201</v>
+        <v>73.64049876932209</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.89656647158992</v>
+        <v>29.89656647158985</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="M4" t="n">
-        <v>530.4790088300522</v>
+        <v>530.4790088300524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27862,10 +27862,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>290.4592238817534</v>
+        <v>392.1340742012125</v>
       </c>
       <c r="G8" t="n">
-        <v>276.2135473829221</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>49.6272863185178</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27919,7 +27919,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.0958490560165</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>24.35723673402308</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>77.08622195451581</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265704</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>36.41576288613973</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -27995,7 +27995,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>60.20841894355158</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28020,16 +28020,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>107.1367624446197</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291754</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504618</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>262.3765163474302</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>84.0854079222139</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="C11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="D11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="E11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="F11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="G11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="H11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="I11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>59.10149986574402</v>
+        <v>59.10149986574396</v>
       </c>
       <c r="S11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="T11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="U11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="V11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="W11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="X11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="Y11" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="C13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="D13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="E13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="F13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="G13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="H13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="I13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="J13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="K13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="L13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="M13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="N13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="O13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="P13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="R13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="S13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="T13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="U13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="V13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="W13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="X13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.18467569452876</v>
+        <v>83.18467569452866</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="C14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="D14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="E14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="F14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="G14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="H14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="I14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>59.10149986574402</v>
+        <v>59.10149986574393</v>
       </c>
       <c r="S14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="T14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="U14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="V14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="W14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="X14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="Y14" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="C16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="D16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="E16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="F16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="G16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="H16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="I16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="J16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="K16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="L16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="M16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="N16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="O16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="P16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="R16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="S16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="T16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="U16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="V16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="W16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="X16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.18467569452871</v>
+        <v>83.18467569452865</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>156.8251744638507</v>
       </c>
       <c r="I17" t="n">
-        <v>152.2900911541167</v>
+        <v>152.2900911541166</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>59.10149986574402</v>
+        <v>59.10149986574393</v>
       </c>
       <c r="S17" t="n">
         <v>156.8251744638507</v>
@@ -28734,16 +28734,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>131.0624718134328</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H19" t="n">
         <v>155.834217826375</v>
       </c>
       <c r="I19" t="n">
-        <v>136.183232034522</v>
+        <v>136.1832320345219</v>
       </c>
       <c r="J19" t="n">
-        <v>43.99251566105965</v>
+        <v>43.99251566105961</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>19.83638472416913</v>
       </c>
       <c r="R19" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S19" t="n">
-        <v>156.8251744638507</v>
+        <v>111.2260870892628</v>
       </c>
       <c r="T19" t="n">
         <v>156.8251744638507</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>59.10149986574396</v>
+        <v>59.10149986574393</v>
       </c>
       <c r="S20" t="n">
         <v>156.8251744638507</v>
@@ -28962,7 +28962,7 @@
         <v>156.8251744638507</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>105.9420868659274</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28977,7 +28977,7 @@
         <v>155.834217826375</v>
       </c>
       <c r="I22" t="n">
-        <v>136.183232034522</v>
+        <v>136.1832320345219</v>
       </c>
       <c r="J22" t="n">
         <v>43.99251566105961</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.83638472416914</v>
+        <v>19.83638472416913</v>
       </c>
       <c r="R22" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S22" t="n">
-        <v>111.2260870892632</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T22" t="n">
         <v>156.8251744638507</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>59.10149986574396</v>
+        <v>59.10149986574393</v>
       </c>
       <c r="S23" t="n">
         <v>156.8251744638507</v>
@@ -29214,7 +29214,7 @@
         <v>155.834217826375</v>
       </c>
       <c r="I25" t="n">
-        <v>136.183232034522</v>
+        <v>136.1832320345219</v>
       </c>
       <c r="J25" t="n">
         <v>43.99251566105961</v>
@@ -29238,19 +29238,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.83638472416914</v>
+        <v>19.83638472416913</v>
       </c>
       <c r="R25" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S25" t="n">
-        <v>156.8251744638507</v>
+        <v>111.226087089263</v>
       </c>
       <c r="T25" t="n">
         <v>156.8251744638507</v>
       </c>
       <c r="U25" t="n">
-        <v>111.2260870892632</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V25" t="n">
         <v>156.8251744638507</v>
@@ -29302,7 +29302,7 @@
         <v>103.5370652409119</v>
       </c>
       <c r="L26" t="n">
-        <v>41.72891940804129</v>
+        <v>103.5370652409119</v>
       </c>
       <c r="M26" t="n">
         <v>103.5370652409119</v>
@@ -29311,7 +29311,7 @@
         <v>103.5370652409119</v>
       </c>
       <c r="O26" t="n">
-        <v>103.5370652409119</v>
+        <v>41.72891940804021</v>
       </c>
       <c r="P26" t="n">
         <v>103.5370652409119</v>
@@ -29460,7 +29460,7 @@
         <v>103.5370652409119</v>
       </c>
       <c r="L28" t="n">
-        <v>103.5370652409131</v>
+        <v>103.5370652409119</v>
       </c>
       <c r="M28" t="n">
         <v>103.5370652409119</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="C29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="D29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="E29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="F29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="G29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="H29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="I29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="J29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="K29" t="n">
-        <v>103.5370652409119</v>
+        <v>41.72891940803936</v>
       </c>
       <c r="L29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="M29" t="n">
-        <v>41.72891940804061</v>
+        <v>103.537065240912</v>
       </c>
       <c r="N29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="O29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="P29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="Q29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="R29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="S29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="T29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="U29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="V29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="W29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="X29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="Y29" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="D31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="E31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="F31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="G31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="H31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="I31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="J31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="K31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="L31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="M31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="N31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="O31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="P31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="R31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="S31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="T31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="U31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="V31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="W31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="X31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.5370652409119</v>
+        <v>103.537065240912</v>
       </c>
     </row>
     <row r="32">
@@ -29770,19 +29770,19 @@
         <v>138.6529754271434</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>134.8373849859503</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>134.8373849859513</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>138.6529754271434</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29937,22 +29937,22 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>74.91779920728484</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>138.6529754271434</v>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>55.54268406839415</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>19.83638472416913</v>
-      </c>
       <c r="R34" t="n">
-        <v>138.1917058418638</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="S34" t="n">
         <v>138.6529754271434</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>156.8251744638506</v>
+        <v>111.2260870892642</v>
       </c>
       <c r="H40" t="n">
         <v>155.834217826375</v>
@@ -30429,7 +30429,7 @@
         <v>138.1917058418638</v>
       </c>
       <c r="S40" t="n">
-        <v>111.2260870892637</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="T40" t="n">
         <v>156.8251744638506</v>
@@ -30663,7 +30663,7 @@
         <v>19.83638472416913</v>
       </c>
       <c r="R43" t="n">
-        <v>92.59261846727657</v>
+        <v>92.59261846727622</v>
       </c>
       <c r="S43" t="n">
         <v>156.8251744638507</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="E44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="F44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="G44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="I44" t="n">
         <v>152.2900911541166</v>
@@ -30745,25 +30745,25 @@
         <v>59.10149986574393</v>
       </c>
       <c r="S44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>111.2260870892642</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H46" t="n">
         <v>155.834217826375</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.83638472416913</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T46" t="n">
-        <v>156.8251744638506</v>
+        <v>131.0624718134328</v>
       </c>
       <c r="U46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4876191076888725</v>
+        <v>0.4876191076888735</v>
       </c>
       <c r="H11" t="n">
-        <v>4.993829186618666</v>
+        <v>4.993829186618677</v>
       </c>
       <c r="I11" t="n">
-        <v>18.79893564917527</v>
+        <v>18.79893564917532</v>
       </c>
       <c r="J11" t="n">
-        <v>41.38606224120848</v>
+        <v>41.38606224120857</v>
       </c>
       <c r="K11" t="n">
-        <v>62.02697906967845</v>
+        <v>62.0269790696786</v>
       </c>
       <c r="L11" t="n">
-        <v>76.9499523366118</v>
+        <v>76.94995233661197</v>
       </c>
       <c r="M11" t="n">
-        <v>85.62164864297378</v>
+        <v>85.62164864297398</v>
       </c>
       <c r="N11" t="n">
-        <v>87.00709643269479</v>
+        <v>87.00709643269499</v>
       </c>
       <c r="O11" t="n">
-        <v>82.15833393061357</v>
+        <v>82.15833393061375</v>
       </c>
       <c r="P11" t="n">
-        <v>70.12023720954453</v>
+        <v>70.12023720954468</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.65737791543676</v>
+        <v>52.65737791543688</v>
       </c>
       <c r="R11" t="n">
-        <v>30.63040377336116</v>
+        <v>30.63040377336123</v>
       </c>
       <c r="S11" t="n">
-        <v>11.11162041646019</v>
+        <v>11.11162041646022</v>
       </c>
       <c r="T11" t="n">
-        <v>2.13455264390804</v>
+        <v>2.134552643908045</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03900952861510978</v>
+        <v>0.03900952861510987</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2608992235148531</v>
+        <v>0.2608992235148536</v>
       </c>
       <c r="H12" t="n">
-        <v>2.519737237630292</v>
+        <v>2.519737237630297</v>
       </c>
       <c r="I12" t="n">
-        <v>8.982714493822792</v>
+        <v>8.982714493822812</v>
       </c>
       <c r="J12" t="n">
-        <v>24.64925514795373</v>
+        <v>24.64925514795378</v>
       </c>
       <c r="K12" t="n">
-        <v>42.12950312344888</v>
+        <v>42.12950312344898</v>
       </c>
       <c r="L12" t="n">
-        <v>56.64831605308246</v>
+        <v>56.64831605308259</v>
       </c>
       <c r="M12" t="n">
-        <v>66.10591290549587</v>
+        <v>66.10591290549601</v>
       </c>
       <c r="N12" t="n">
-        <v>67.85553971582137</v>
+        <v>67.85553971582151</v>
       </c>
       <c r="O12" t="n">
-        <v>62.07456218425541</v>
+        <v>62.07456218425554</v>
       </c>
       <c r="P12" t="n">
-        <v>49.82030874293716</v>
+        <v>49.82030874293727</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.303557022703</v>
+        <v>33.30355702270307</v>
       </c>
       <c r="R12" t="n">
-        <v>16.19863775472044</v>
+        <v>16.19863775472048</v>
       </c>
       <c r="S12" t="n">
-        <v>4.846088647304394</v>
+        <v>4.846088647304405</v>
       </c>
       <c r="T12" t="n">
-        <v>1.051606957939254</v>
+        <v>1.051606957939256</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01716442259966139</v>
+        <v>0.01716442259966143</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2187291448219144</v>
+        <v>0.2187291448219149</v>
       </c>
       <c r="H13" t="n">
-        <v>1.944700942143932</v>
+        <v>1.944700942143936</v>
       </c>
       <c r="I13" t="n">
-        <v>6.577781918826302</v>
+        <v>6.577781918826316</v>
       </c>
       <c r="J13" t="n">
-        <v>15.46415053890935</v>
+        <v>15.46415053890938</v>
       </c>
       <c r="K13" t="n">
-        <v>25.41234973476423</v>
+        <v>25.41234973476429</v>
       </c>
       <c r="L13" t="n">
-        <v>32.51905849470536</v>
+        <v>32.51905849470543</v>
       </c>
       <c r="M13" t="n">
-        <v>34.28678767422064</v>
+        <v>34.28678767422071</v>
       </c>
       <c r="N13" t="n">
-        <v>33.47152449806626</v>
+        <v>33.47152449806633</v>
       </c>
       <c r="O13" t="n">
-        <v>30.91637039719206</v>
+        <v>30.91637039719213</v>
       </c>
       <c r="P13" t="n">
-        <v>26.45429584282499</v>
+        <v>26.45429584282505</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.31558320867867</v>
+        <v>18.31558320867871</v>
       </c>
       <c r="R13" t="n">
-        <v>9.834857729901714</v>
+        <v>9.834857729901737</v>
       </c>
       <c r="S13" t="n">
-        <v>3.811852460214635</v>
+        <v>3.811852460214643</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9345699824209069</v>
+        <v>0.9345699824209089</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01193068062664989</v>
+        <v>0.01193068062664992</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4876191076888725</v>
+        <v>0.4876191076888738</v>
       </c>
       <c r="H14" t="n">
-        <v>4.993829186618666</v>
+        <v>4.99382918661868</v>
       </c>
       <c r="I14" t="n">
-        <v>18.79893564917527</v>
+        <v>18.79893564917533</v>
       </c>
       <c r="J14" t="n">
-        <v>41.38606224120848</v>
+        <v>41.38606224120859</v>
       </c>
       <c r="K14" t="n">
-        <v>62.02697906967845</v>
+        <v>62.02697906967863</v>
       </c>
       <c r="L14" t="n">
-        <v>76.9499523366118</v>
+        <v>76.94995233661201</v>
       </c>
       <c r="M14" t="n">
-        <v>85.62164864297378</v>
+        <v>85.62164864297402</v>
       </c>
       <c r="N14" t="n">
-        <v>87.00709643269479</v>
+        <v>87.00709643269505</v>
       </c>
       <c r="O14" t="n">
-        <v>82.15833393061357</v>
+        <v>82.15833393061381</v>
       </c>
       <c r="P14" t="n">
-        <v>70.12023720954453</v>
+        <v>70.12023720954471</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.65737791543676</v>
+        <v>52.65737791543691</v>
       </c>
       <c r="R14" t="n">
-        <v>30.63040377336116</v>
+        <v>30.63040377336125</v>
       </c>
       <c r="S14" t="n">
-        <v>11.11162041646019</v>
+        <v>11.11162041646022</v>
       </c>
       <c r="T14" t="n">
-        <v>2.13455264390804</v>
+        <v>2.134552643908046</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03900952861510978</v>
+        <v>0.0390095286151099</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2608992235148531</v>
+        <v>0.2608992235148538</v>
       </c>
       <c r="H15" t="n">
-        <v>2.519737237630292</v>
+        <v>2.519737237630299</v>
       </c>
       <c r="I15" t="n">
-        <v>8.982714493822792</v>
+        <v>8.982714493822817</v>
       </c>
       <c r="J15" t="n">
-        <v>24.64925514795373</v>
+        <v>24.6492551479538</v>
       </c>
       <c r="K15" t="n">
-        <v>42.12950312344888</v>
+        <v>42.129503123449</v>
       </c>
       <c r="L15" t="n">
-        <v>56.64831605308246</v>
+        <v>56.64831605308262</v>
       </c>
       <c r="M15" t="n">
-        <v>66.10591290549587</v>
+        <v>66.10591290549606</v>
       </c>
       <c r="N15" t="n">
-        <v>67.85553971582137</v>
+        <v>67.85553971582155</v>
       </c>
       <c r="O15" t="n">
-        <v>62.07456218425541</v>
+        <v>62.07456218425558</v>
       </c>
       <c r="P15" t="n">
-        <v>49.82030874293716</v>
+        <v>49.8203087429373</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.303557022703</v>
+        <v>33.30355702270309</v>
       </c>
       <c r="R15" t="n">
-        <v>16.19863775472044</v>
+        <v>16.19863775472049</v>
       </c>
       <c r="S15" t="n">
-        <v>4.846088647304394</v>
+        <v>4.846088647304408</v>
       </c>
       <c r="T15" t="n">
-        <v>1.051606957939254</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01716442259966139</v>
+        <v>0.01716442259966144</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2187291448219144</v>
+        <v>0.2187291448219151</v>
       </c>
       <c r="H16" t="n">
-        <v>1.944700942143932</v>
+        <v>1.944700942143937</v>
       </c>
       <c r="I16" t="n">
-        <v>6.577781918826302</v>
+        <v>6.57778191882632</v>
       </c>
       <c r="J16" t="n">
-        <v>15.46415053890935</v>
+        <v>15.46415053890939</v>
       </c>
       <c r="K16" t="n">
-        <v>25.41234973476423</v>
+        <v>25.41234973476431</v>
       </c>
       <c r="L16" t="n">
-        <v>32.51905849470536</v>
+        <v>32.51905849470545</v>
       </c>
       <c r="M16" t="n">
-        <v>34.28678767422064</v>
+        <v>34.28678767422073</v>
       </c>
       <c r="N16" t="n">
-        <v>33.47152449806626</v>
+        <v>33.47152449806635</v>
       </c>
       <c r="O16" t="n">
-        <v>30.91637039719206</v>
+        <v>30.91637039719215</v>
       </c>
       <c r="P16" t="n">
-        <v>26.45429584282499</v>
+        <v>26.45429584282506</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.31558320867867</v>
+        <v>18.31558320867872</v>
       </c>
       <c r="R16" t="n">
-        <v>9.834857729901714</v>
+        <v>9.834857729901742</v>
       </c>
       <c r="S16" t="n">
-        <v>3.811852460214635</v>
+        <v>3.811852460214646</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9345699824209069</v>
+        <v>0.9345699824209095</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01193068062664989</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4876191076888725</v>
+        <v>0.4876191076888738</v>
       </c>
       <c r="H17" t="n">
-        <v>4.993829186618666</v>
+        <v>4.99382918661868</v>
       </c>
       <c r="I17" t="n">
-        <v>18.79893564917527</v>
+        <v>18.79893564917533</v>
       </c>
       <c r="J17" t="n">
-        <v>41.38606224120848</v>
+        <v>41.38606224120859</v>
       </c>
       <c r="K17" t="n">
-        <v>62.02697906967845</v>
+        <v>62.02697906967863</v>
       </c>
       <c r="L17" t="n">
-        <v>76.9499523366118</v>
+        <v>76.94995233661201</v>
       </c>
       <c r="M17" t="n">
-        <v>85.62164864297378</v>
+        <v>85.62164864297402</v>
       </c>
       <c r="N17" t="n">
-        <v>87.00709643269479</v>
+        <v>87.00709643269505</v>
       </c>
       <c r="O17" t="n">
-        <v>82.15833393061357</v>
+        <v>82.15833393061381</v>
       </c>
       <c r="P17" t="n">
-        <v>70.12023720954453</v>
+        <v>70.12023720954471</v>
       </c>
       <c r="Q17" t="n">
-        <v>52.65737791543676</v>
+        <v>52.65737791543691</v>
       </c>
       <c r="R17" t="n">
-        <v>30.63040377336116</v>
+        <v>30.63040377336125</v>
       </c>
       <c r="S17" t="n">
-        <v>11.11162041646019</v>
+        <v>11.11162041646022</v>
       </c>
       <c r="T17" t="n">
-        <v>2.13455264390804</v>
+        <v>2.134552643908046</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03900952861510978</v>
+        <v>0.0390095286151099</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2608992235148531</v>
+        <v>0.2608992235148538</v>
       </c>
       <c r="H18" t="n">
-        <v>2.519737237630292</v>
+        <v>2.519737237630299</v>
       </c>
       <c r="I18" t="n">
-        <v>8.982714493822792</v>
+        <v>8.982714493822817</v>
       </c>
       <c r="J18" t="n">
-        <v>24.64925514795373</v>
+        <v>24.6492551479538</v>
       </c>
       <c r="K18" t="n">
-        <v>42.12950312344888</v>
+        <v>42.129503123449</v>
       </c>
       <c r="L18" t="n">
-        <v>56.64831605308246</v>
+        <v>56.64831605308262</v>
       </c>
       <c r="M18" t="n">
-        <v>66.10591290549587</v>
+        <v>66.10591290549606</v>
       </c>
       <c r="N18" t="n">
-        <v>67.85553971582137</v>
+        <v>67.85553971582155</v>
       </c>
       <c r="O18" t="n">
-        <v>62.07456218425541</v>
+        <v>62.07456218425558</v>
       </c>
       <c r="P18" t="n">
-        <v>49.82030874293716</v>
+        <v>49.8203087429373</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.303557022703</v>
+        <v>33.30355702270309</v>
       </c>
       <c r="R18" t="n">
-        <v>16.19863775472044</v>
+        <v>16.19863775472049</v>
       </c>
       <c r="S18" t="n">
-        <v>4.846088647304394</v>
+        <v>4.846088647304408</v>
       </c>
       <c r="T18" t="n">
-        <v>1.051606957939254</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01716442259966139</v>
+        <v>0.01716442259966144</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2187291448219144</v>
+        <v>0.2187291448219151</v>
       </c>
       <c r="H19" t="n">
-        <v>1.944700942143932</v>
+        <v>1.944700942143937</v>
       </c>
       <c r="I19" t="n">
-        <v>6.577781918826302</v>
+        <v>6.57778191882632</v>
       </c>
       <c r="J19" t="n">
-        <v>15.46415053890935</v>
+        <v>15.46415053890939</v>
       </c>
       <c r="K19" t="n">
-        <v>25.41234973476423</v>
+        <v>25.41234973476431</v>
       </c>
       <c r="L19" t="n">
-        <v>32.51905849470536</v>
+        <v>32.51905849470545</v>
       </c>
       <c r="M19" t="n">
-        <v>34.28678767422064</v>
+        <v>34.28678767422073</v>
       </c>
       <c r="N19" t="n">
-        <v>33.47152449806626</v>
+        <v>33.47152449806635</v>
       </c>
       <c r="O19" t="n">
-        <v>30.91637039719206</v>
+        <v>30.91637039719215</v>
       </c>
       <c r="P19" t="n">
-        <v>26.45429584282499</v>
+        <v>26.45429584282506</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.31558320867867</v>
+        <v>18.31558320867872</v>
       </c>
       <c r="R19" t="n">
-        <v>9.834857729901714</v>
+        <v>9.834857729901742</v>
       </c>
       <c r="S19" t="n">
-        <v>3.811852460214635</v>
+        <v>3.811852460214646</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9345699824209069</v>
+        <v>0.9345699824209095</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01193068062664989</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4876191076888735</v>
+        <v>0.4876191076888738</v>
       </c>
       <c r="H20" t="n">
-        <v>4.993829186618677</v>
+        <v>4.99382918661868</v>
       </c>
       <c r="I20" t="n">
-        <v>18.79893564917532</v>
+        <v>18.79893564917533</v>
       </c>
       <c r="J20" t="n">
-        <v>41.38606224120857</v>
+        <v>41.38606224120859</v>
       </c>
       <c r="K20" t="n">
-        <v>62.0269790696786</v>
+        <v>62.02697906967863</v>
       </c>
       <c r="L20" t="n">
-        <v>76.94995233661197</v>
+        <v>76.94995233661201</v>
       </c>
       <c r="M20" t="n">
-        <v>85.62164864297398</v>
+        <v>85.62164864297402</v>
       </c>
       <c r="N20" t="n">
-        <v>87.00709643269499</v>
+        <v>87.00709643269505</v>
       </c>
       <c r="O20" t="n">
-        <v>82.15833393061375</v>
+        <v>82.15833393061381</v>
       </c>
       <c r="P20" t="n">
-        <v>70.12023720954468</v>
+        <v>70.12023720954471</v>
       </c>
       <c r="Q20" t="n">
-        <v>52.65737791543688</v>
+        <v>52.65737791543691</v>
       </c>
       <c r="R20" t="n">
-        <v>30.63040377336123</v>
+        <v>30.63040377336125</v>
       </c>
       <c r="S20" t="n">
         <v>11.11162041646022</v>
       </c>
       <c r="T20" t="n">
-        <v>2.134552643908045</v>
+        <v>2.134552643908046</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03900952861510987</v>
+        <v>0.0390095286151099</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2608992235148536</v>
+        <v>0.2608992235148538</v>
       </c>
       <c r="H21" t="n">
-        <v>2.519737237630297</v>
+        <v>2.519737237630299</v>
       </c>
       <c r="I21" t="n">
-        <v>8.982714493822812</v>
+        <v>8.982714493822817</v>
       </c>
       <c r="J21" t="n">
-        <v>24.64925514795378</v>
+        <v>24.6492551479538</v>
       </c>
       <c r="K21" t="n">
-        <v>42.12950312344898</v>
+        <v>42.129503123449</v>
       </c>
       <c r="L21" t="n">
-        <v>56.64831605308259</v>
+        <v>56.64831605308262</v>
       </c>
       <c r="M21" t="n">
-        <v>66.10591290549601</v>
+        <v>66.10591290549606</v>
       </c>
       <c r="N21" t="n">
-        <v>67.85553971582151</v>
+        <v>67.85553971582155</v>
       </c>
       <c r="O21" t="n">
-        <v>62.07456218425554</v>
+        <v>62.07456218425558</v>
       </c>
       <c r="P21" t="n">
-        <v>49.82030874293727</v>
+        <v>49.8203087429373</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.30355702270307</v>
+        <v>33.30355702270309</v>
       </c>
       <c r="R21" t="n">
-        <v>16.19863775472048</v>
+        <v>16.19863775472049</v>
       </c>
       <c r="S21" t="n">
-        <v>4.846088647304405</v>
+        <v>4.846088647304408</v>
       </c>
       <c r="T21" t="n">
-        <v>1.051606957939256</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01716442259966143</v>
+        <v>0.01716442259966144</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2187291448219149</v>
+        <v>0.2187291448219151</v>
       </c>
       <c r="H22" t="n">
-        <v>1.944700942143936</v>
+        <v>1.944700942143937</v>
       </c>
       <c r="I22" t="n">
-        <v>6.577781918826316</v>
+        <v>6.57778191882632</v>
       </c>
       <c r="J22" t="n">
-        <v>15.46415053890938</v>
+        <v>15.46415053890939</v>
       </c>
       <c r="K22" t="n">
-        <v>25.41234973476429</v>
+        <v>25.41234973476431</v>
       </c>
       <c r="L22" t="n">
-        <v>32.51905849470543</v>
+        <v>32.51905849470545</v>
       </c>
       <c r="M22" t="n">
-        <v>34.28678767422071</v>
+        <v>34.28678767422073</v>
       </c>
       <c r="N22" t="n">
-        <v>33.47152449806633</v>
+        <v>33.47152449806635</v>
       </c>
       <c r="O22" t="n">
-        <v>30.91637039719213</v>
+        <v>30.91637039719215</v>
       </c>
       <c r="P22" t="n">
-        <v>26.45429584282505</v>
+        <v>26.45429584282506</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.31558320867871</v>
+        <v>18.31558320867872</v>
       </c>
       <c r="R22" t="n">
-        <v>9.834857729901737</v>
+        <v>9.834857729901742</v>
       </c>
       <c r="S22" t="n">
-        <v>3.811852460214643</v>
+        <v>3.811852460214646</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9345699824209089</v>
+        <v>0.9345699824209095</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01193068062664992</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4876191076888735</v>
+        <v>0.4876191076888738</v>
       </c>
       <c r="H23" t="n">
-        <v>4.993829186618677</v>
+        <v>4.99382918661868</v>
       </c>
       <c r="I23" t="n">
-        <v>18.79893564917532</v>
+        <v>18.79893564917533</v>
       </c>
       <c r="J23" t="n">
-        <v>41.38606224120857</v>
+        <v>41.38606224120859</v>
       </c>
       <c r="K23" t="n">
-        <v>62.0269790696786</v>
+        <v>62.02697906967863</v>
       </c>
       <c r="L23" t="n">
-        <v>76.94995233661197</v>
+        <v>76.94995233661201</v>
       </c>
       <c r="M23" t="n">
-        <v>85.62164864297398</v>
+        <v>85.62164864297402</v>
       </c>
       <c r="N23" t="n">
-        <v>87.00709643269499</v>
+        <v>87.00709643269505</v>
       </c>
       <c r="O23" t="n">
-        <v>82.15833393061375</v>
+        <v>82.15833393061381</v>
       </c>
       <c r="P23" t="n">
-        <v>70.12023720954468</v>
+        <v>70.12023720954471</v>
       </c>
       <c r="Q23" t="n">
-        <v>52.65737791543688</v>
+        <v>52.65737791543691</v>
       </c>
       <c r="R23" t="n">
-        <v>30.63040377336123</v>
+        <v>30.63040377336125</v>
       </c>
       <c r="S23" t="n">
         <v>11.11162041646022</v>
       </c>
       <c r="T23" t="n">
-        <v>2.134552643908045</v>
+        <v>2.134552643908046</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03900952861510987</v>
+        <v>0.0390095286151099</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2608992235148536</v>
+        <v>0.2608992235148538</v>
       </c>
       <c r="H24" t="n">
-        <v>2.519737237630297</v>
+        <v>2.519737237630299</v>
       </c>
       <c r="I24" t="n">
-        <v>8.982714493822812</v>
+        <v>8.982714493822817</v>
       </c>
       <c r="J24" t="n">
-        <v>24.64925514795378</v>
+        <v>24.6492551479538</v>
       </c>
       <c r="K24" t="n">
-        <v>42.12950312344898</v>
+        <v>42.129503123449</v>
       </c>
       <c r="L24" t="n">
-        <v>56.64831605308259</v>
+        <v>56.64831605308262</v>
       </c>
       <c r="M24" t="n">
-        <v>66.10591290549601</v>
+        <v>66.10591290549606</v>
       </c>
       <c r="N24" t="n">
-        <v>67.85553971582151</v>
+        <v>67.85553971582155</v>
       </c>
       <c r="O24" t="n">
-        <v>62.07456218425554</v>
+        <v>62.07456218425558</v>
       </c>
       <c r="P24" t="n">
-        <v>49.82030874293727</v>
+        <v>49.8203087429373</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.30355702270307</v>
+        <v>33.30355702270309</v>
       </c>
       <c r="R24" t="n">
-        <v>16.19863775472048</v>
+        <v>16.19863775472049</v>
       </c>
       <c r="S24" t="n">
-        <v>4.846088647304405</v>
+        <v>4.846088647304408</v>
       </c>
       <c r="T24" t="n">
-        <v>1.051606957939256</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01716442259966143</v>
+        <v>0.01716442259966144</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2187291448219149</v>
+        <v>0.2187291448219151</v>
       </c>
       <c r="H25" t="n">
-        <v>1.944700942143936</v>
+        <v>1.944700942143937</v>
       </c>
       <c r="I25" t="n">
-        <v>6.577781918826316</v>
+        <v>6.57778191882632</v>
       </c>
       <c r="J25" t="n">
-        <v>15.46415053890938</v>
+        <v>15.46415053890939</v>
       </c>
       <c r="K25" t="n">
-        <v>25.41234973476429</v>
+        <v>25.41234973476431</v>
       </c>
       <c r="L25" t="n">
-        <v>32.51905849470543</v>
+        <v>32.51905849470545</v>
       </c>
       <c r="M25" t="n">
-        <v>34.28678767422071</v>
+        <v>34.28678767422073</v>
       </c>
       <c r="N25" t="n">
-        <v>33.47152449806633</v>
+        <v>33.47152449806635</v>
       </c>
       <c r="O25" t="n">
-        <v>30.91637039719213</v>
+        <v>30.91637039719215</v>
       </c>
       <c r="P25" t="n">
-        <v>26.45429584282505</v>
+        <v>26.45429584282506</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.31558320867871</v>
+        <v>18.31558320867872</v>
       </c>
       <c r="R25" t="n">
-        <v>9.834857729901737</v>
+        <v>9.834857729901742</v>
       </c>
       <c r="S25" t="n">
-        <v>3.811852460214643</v>
+        <v>3.811852460214646</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9345699824209089</v>
+        <v>0.9345699824209095</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01193068062664992</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4876191076888735</v>
+        <v>0.4876191076888738</v>
       </c>
       <c r="H26" t="n">
-        <v>4.993829186618677</v>
+        <v>4.99382918661868</v>
       </c>
       <c r="I26" t="n">
-        <v>18.79893564917532</v>
+        <v>18.79893564917533</v>
       </c>
       <c r="J26" t="n">
-        <v>41.38606224120857</v>
+        <v>41.38606224120859</v>
       </c>
       <c r="K26" t="n">
-        <v>62.0269790696786</v>
+        <v>62.02697906967863</v>
       </c>
       <c r="L26" t="n">
-        <v>76.94995233661197</v>
+        <v>76.94995233661201</v>
       </c>
       <c r="M26" t="n">
-        <v>85.62164864297398</v>
+        <v>85.62164864297402</v>
       </c>
       <c r="N26" t="n">
-        <v>87.00709643269499</v>
+        <v>87.00709643269505</v>
       </c>
       <c r="O26" t="n">
-        <v>82.15833393061375</v>
+        <v>82.15833393061381</v>
       </c>
       <c r="P26" t="n">
-        <v>70.12023720954468</v>
+        <v>70.12023720954471</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.65737791543688</v>
+        <v>52.65737791543691</v>
       </c>
       <c r="R26" t="n">
-        <v>30.63040377336123</v>
+        <v>30.63040377336125</v>
       </c>
       <c r="S26" t="n">
         <v>11.11162041646022</v>
       </c>
       <c r="T26" t="n">
-        <v>2.134552643908045</v>
+        <v>2.134552643908046</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03900952861510987</v>
+        <v>0.0390095286151099</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2608992235148536</v>
+        <v>0.2608992235148538</v>
       </c>
       <c r="H27" t="n">
-        <v>2.519737237630297</v>
+        <v>2.519737237630299</v>
       </c>
       <c r="I27" t="n">
-        <v>8.982714493822812</v>
+        <v>8.982714493822817</v>
       </c>
       <c r="J27" t="n">
-        <v>24.64925514795378</v>
+        <v>24.6492551479538</v>
       </c>
       <c r="K27" t="n">
-        <v>42.12950312344898</v>
+        <v>42.129503123449</v>
       </c>
       <c r="L27" t="n">
-        <v>56.64831605308259</v>
+        <v>56.64831605308262</v>
       </c>
       <c r="M27" t="n">
-        <v>66.10591290549601</v>
+        <v>66.10591290549606</v>
       </c>
       <c r="N27" t="n">
-        <v>67.85553971582151</v>
+        <v>67.85553971582155</v>
       </c>
       <c r="O27" t="n">
-        <v>62.07456218425554</v>
+        <v>62.07456218425558</v>
       </c>
       <c r="P27" t="n">
-        <v>49.82030874293727</v>
+        <v>49.8203087429373</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.30355702270307</v>
+        <v>33.30355702270309</v>
       </c>
       <c r="R27" t="n">
-        <v>16.19863775472048</v>
+        <v>16.19863775472049</v>
       </c>
       <c r="S27" t="n">
-        <v>4.846088647304405</v>
+        <v>4.846088647304408</v>
       </c>
       <c r="T27" t="n">
-        <v>1.051606957939256</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01716442259966143</v>
+        <v>0.01716442259966144</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2187291448219149</v>
+        <v>0.2187291448219151</v>
       </c>
       <c r="H28" t="n">
-        <v>1.944700942143936</v>
+        <v>1.944700942143937</v>
       </c>
       <c r="I28" t="n">
-        <v>6.577781918826316</v>
+        <v>6.57778191882632</v>
       </c>
       <c r="J28" t="n">
-        <v>15.46415053890938</v>
+        <v>15.46415053890939</v>
       </c>
       <c r="K28" t="n">
-        <v>25.41234973476429</v>
+        <v>25.41234973476431</v>
       </c>
       <c r="L28" t="n">
-        <v>32.51905849470543</v>
+        <v>32.51905849470545</v>
       </c>
       <c r="M28" t="n">
-        <v>34.28678767422071</v>
+        <v>34.28678767422073</v>
       </c>
       <c r="N28" t="n">
-        <v>33.47152449806633</v>
+        <v>33.47152449806635</v>
       </c>
       <c r="O28" t="n">
-        <v>30.91637039719213</v>
+        <v>30.91637039719215</v>
       </c>
       <c r="P28" t="n">
-        <v>26.45429584282505</v>
+        <v>26.45429584282506</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.31558320867871</v>
+        <v>18.31558320867872</v>
       </c>
       <c r="R28" t="n">
-        <v>9.834857729901737</v>
+        <v>9.834857729901742</v>
       </c>
       <c r="S28" t="n">
-        <v>3.811852460214643</v>
+        <v>3.811852460214646</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9345699824209089</v>
+        <v>0.9345699824209095</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01193068062664992</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,16 +33181,16 @@
         <v>18.79893564917533</v>
       </c>
       <c r="J29" t="n">
-        <v>41.3860622412086</v>
+        <v>41.38606224120859</v>
       </c>
       <c r="K29" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967863</v>
       </c>
       <c r="L29" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661201</v>
       </c>
       <c r="M29" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297402</v>
       </c>
       <c r="N29" t="n">
         <v>87.00709643269505</v>
@@ -33199,10 +33199,10 @@
         <v>82.15833393061381</v>
       </c>
       <c r="P29" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954471</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543691</v>
       </c>
       <c r="R29" t="n">
         <v>30.63040377336125</v>
@@ -33257,13 +33257,13 @@
         <v>2.519737237630299</v>
       </c>
       <c r="I30" t="n">
-        <v>8.982714493822819</v>
+        <v>8.982714493822817</v>
       </c>
       <c r="J30" t="n">
         <v>24.6492551479538</v>
       </c>
       <c r="K30" t="n">
-        <v>42.12950312344901</v>
+        <v>42.129503123449</v>
       </c>
       <c r="L30" t="n">
         <v>56.64831605308262</v>
@@ -33272,16 +33272,16 @@
         <v>66.10591290549606</v>
       </c>
       <c r="N30" t="n">
-        <v>67.85553971582156</v>
+        <v>67.85553971582155</v>
       </c>
       <c r="O30" t="n">
         <v>62.07456218425558</v>
       </c>
       <c r="P30" t="n">
-        <v>49.82030874293731</v>
+        <v>49.8203087429373</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270309</v>
       </c>
       <c r="R30" t="n">
         <v>16.19863775472049</v>
@@ -33336,10 +33336,10 @@
         <v>1.944700942143937</v>
       </c>
       <c r="I31" t="n">
-        <v>6.577781918826321</v>
+        <v>6.57778191882632</v>
       </c>
       <c r="J31" t="n">
-        <v>15.4641505389094</v>
+        <v>15.46415053890939</v>
       </c>
       <c r="K31" t="n">
         <v>25.41234973476431</v>
@@ -33348,10 +33348,10 @@
         <v>32.51905849470545</v>
       </c>
       <c r="M31" t="n">
-        <v>34.28678767422074</v>
+        <v>34.28678767422073</v>
       </c>
       <c r="N31" t="n">
-        <v>33.47152449806636</v>
+        <v>33.47152449806635</v>
       </c>
       <c r="O31" t="n">
         <v>30.91637039719215</v>
@@ -33360,7 +33360,7 @@
         <v>26.45429584282506</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.31558320867873</v>
+        <v>18.31558320867872</v>
       </c>
       <c r="R31" t="n">
         <v>9.834857729901742</v>
@@ -33369,7 +33369,7 @@
         <v>3.811852460214646</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209095</v>
       </c>
       <c r="U31" t="n">
         <v>0.01193068062664993</v>
@@ -33418,16 +33418,16 @@
         <v>18.79893564917533</v>
       </c>
       <c r="J32" t="n">
-        <v>41.3860622412086</v>
+        <v>41.38606224120859</v>
       </c>
       <c r="K32" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967863</v>
       </c>
       <c r="L32" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661201</v>
       </c>
       <c r="M32" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297402</v>
       </c>
       <c r="N32" t="n">
         <v>87.00709643269505</v>
@@ -33436,10 +33436,10 @@
         <v>82.15833393061381</v>
       </c>
       <c r="P32" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954471</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543691</v>
       </c>
       <c r="R32" t="n">
         <v>30.63040377336125</v>
@@ -33494,13 +33494,13 @@
         <v>2.519737237630299</v>
       </c>
       <c r="I33" t="n">
-        <v>8.982714493822819</v>
+        <v>8.982714493822817</v>
       </c>
       <c r="J33" t="n">
         <v>24.6492551479538</v>
       </c>
       <c r="K33" t="n">
-        <v>42.12950312344901</v>
+        <v>42.129503123449</v>
       </c>
       <c r="L33" t="n">
         <v>56.64831605308262</v>
@@ -33509,16 +33509,16 @@
         <v>66.10591290549606</v>
       </c>
       <c r="N33" t="n">
-        <v>67.85553971582156</v>
+        <v>67.85553971582155</v>
       </c>
       <c r="O33" t="n">
         <v>62.07456218425558</v>
       </c>
       <c r="P33" t="n">
-        <v>49.82030874293731</v>
+        <v>49.8203087429373</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270309</v>
       </c>
       <c r="R33" t="n">
         <v>16.19863775472049</v>
@@ -33573,10 +33573,10 @@
         <v>1.944700942143937</v>
       </c>
       <c r="I34" t="n">
-        <v>6.577781918826321</v>
+        <v>6.57778191882632</v>
       </c>
       <c r="J34" t="n">
-        <v>15.4641505389094</v>
+        <v>15.46415053890939</v>
       </c>
       <c r="K34" t="n">
         <v>25.41234973476431</v>
@@ -33585,10 +33585,10 @@
         <v>32.51905849470545</v>
       </c>
       <c r="M34" t="n">
-        <v>34.28678767422074</v>
+        <v>34.28678767422073</v>
       </c>
       <c r="N34" t="n">
-        <v>33.47152449806636</v>
+        <v>33.47152449806635</v>
       </c>
       <c r="O34" t="n">
         <v>30.91637039719215</v>
@@ -33597,7 +33597,7 @@
         <v>26.45429584282506</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.31558320867873</v>
+        <v>18.31558320867872</v>
       </c>
       <c r="R34" t="n">
         <v>9.834857729901742</v>
@@ -33606,7 +33606,7 @@
         <v>3.811852460214646</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209095</v>
       </c>
       <c r="U34" t="n">
         <v>0.01193068062664993</v>
@@ -33655,16 +33655,16 @@
         <v>18.79893564917533</v>
       </c>
       <c r="J35" t="n">
-        <v>41.3860622412086</v>
+        <v>41.38606224120859</v>
       </c>
       <c r="K35" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967863</v>
       </c>
       <c r="L35" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661201</v>
       </c>
       <c r="M35" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297402</v>
       </c>
       <c r="N35" t="n">
         <v>87.00709643269505</v>
@@ -33673,10 +33673,10 @@
         <v>82.15833393061381</v>
       </c>
       <c r="P35" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954471</v>
       </c>
       <c r="Q35" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543691</v>
       </c>
       <c r="R35" t="n">
         <v>30.63040377336125</v>
@@ -33731,13 +33731,13 @@
         <v>2.519737237630299</v>
       </c>
       <c r="I36" t="n">
-        <v>8.982714493822819</v>
+        <v>8.982714493822817</v>
       </c>
       <c r="J36" t="n">
         <v>24.6492551479538</v>
       </c>
       <c r="K36" t="n">
-        <v>42.12950312344901</v>
+        <v>42.129503123449</v>
       </c>
       <c r="L36" t="n">
         <v>56.64831605308262</v>
@@ -33746,16 +33746,16 @@
         <v>66.10591290549606</v>
       </c>
       <c r="N36" t="n">
-        <v>67.85553971582156</v>
+        <v>67.85553971582155</v>
       </c>
       <c r="O36" t="n">
         <v>62.07456218425558</v>
       </c>
       <c r="P36" t="n">
-        <v>49.82030874293731</v>
+        <v>49.8203087429373</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270309</v>
       </c>
       <c r="R36" t="n">
         <v>16.19863775472049</v>
@@ -33810,10 +33810,10 @@
         <v>1.944700942143937</v>
       </c>
       <c r="I37" t="n">
-        <v>6.577781918826321</v>
+        <v>6.57778191882632</v>
       </c>
       <c r="J37" t="n">
-        <v>15.4641505389094</v>
+        <v>15.46415053890939</v>
       </c>
       <c r="K37" t="n">
         <v>25.41234973476431</v>
@@ -33822,10 +33822,10 @@
         <v>32.51905849470545</v>
       </c>
       <c r="M37" t="n">
-        <v>34.28678767422074</v>
+        <v>34.28678767422073</v>
       </c>
       <c r="N37" t="n">
-        <v>33.47152449806636</v>
+        <v>33.47152449806635</v>
       </c>
       <c r="O37" t="n">
         <v>30.91637039719215</v>
@@ -33834,7 +33834,7 @@
         <v>26.45429584282506</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.31558320867873</v>
+        <v>18.31558320867872</v>
       </c>
       <c r="R37" t="n">
         <v>9.834857729901742</v>
@@ -33843,7 +33843,7 @@
         <v>3.811852460214646</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209095</v>
       </c>
       <c r="U37" t="n">
         <v>0.01193068062664993</v>
@@ -33892,16 +33892,16 @@
         <v>18.79893564917533</v>
       </c>
       <c r="J38" t="n">
-        <v>41.3860622412086</v>
+        <v>41.38606224120859</v>
       </c>
       <c r="K38" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967863</v>
       </c>
       <c r="L38" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661201</v>
       </c>
       <c r="M38" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297402</v>
       </c>
       <c r="N38" t="n">
         <v>87.00709643269505</v>
@@ -33910,10 +33910,10 @@
         <v>82.15833393061381</v>
       </c>
       <c r="P38" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954471</v>
       </c>
       <c r="Q38" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543691</v>
       </c>
       <c r="R38" t="n">
         <v>30.63040377336125</v>
@@ -33968,13 +33968,13 @@
         <v>2.519737237630299</v>
       </c>
       <c r="I39" t="n">
-        <v>8.982714493822819</v>
+        <v>8.982714493822817</v>
       </c>
       <c r="J39" t="n">
         <v>24.6492551479538</v>
       </c>
       <c r="K39" t="n">
-        <v>42.12950312344901</v>
+        <v>42.129503123449</v>
       </c>
       <c r="L39" t="n">
         <v>56.64831605308262</v>
@@ -33983,16 +33983,16 @@
         <v>66.10591290549606</v>
       </c>
       <c r="N39" t="n">
-        <v>67.85553971582156</v>
+        <v>67.85553971582155</v>
       </c>
       <c r="O39" t="n">
         <v>62.07456218425558</v>
       </c>
       <c r="P39" t="n">
-        <v>49.82030874293731</v>
+        <v>49.8203087429373</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270309</v>
       </c>
       <c r="R39" t="n">
         <v>16.19863775472049</v>
@@ -34047,10 +34047,10 @@
         <v>1.944700942143937</v>
       </c>
       <c r="I40" t="n">
-        <v>6.577781918826321</v>
+        <v>6.57778191882632</v>
       </c>
       <c r="J40" t="n">
-        <v>15.4641505389094</v>
+        <v>15.46415053890939</v>
       </c>
       <c r="K40" t="n">
         <v>25.41234973476431</v>
@@ -34059,10 +34059,10 @@
         <v>32.51905849470545</v>
       </c>
       <c r="M40" t="n">
-        <v>34.28678767422074</v>
+        <v>34.28678767422073</v>
       </c>
       <c r="N40" t="n">
-        <v>33.47152449806636</v>
+        <v>33.47152449806635</v>
       </c>
       <c r="O40" t="n">
         <v>30.91637039719215</v>
@@ -34071,7 +34071,7 @@
         <v>26.45429584282506</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.31558320867873</v>
+        <v>18.31558320867872</v>
       </c>
       <c r="R40" t="n">
         <v>9.834857729901742</v>
@@ -34080,7 +34080,7 @@
         <v>3.811852460214646</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209095</v>
       </c>
       <c r="U40" t="n">
         <v>0.01193068062664993</v>
@@ -34129,16 +34129,16 @@
         <v>18.79893564917533</v>
       </c>
       <c r="J41" t="n">
-        <v>41.3860622412086</v>
+        <v>41.38606224120859</v>
       </c>
       <c r="K41" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967863</v>
       </c>
       <c r="L41" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661201</v>
       </c>
       <c r="M41" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297402</v>
       </c>
       <c r="N41" t="n">
         <v>87.00709643269505</v>
@@ -34147,10 +34147,10 @@
         <v>82.15833393061381</v>
       </c>
       <c r="P41" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954471</v>
       </c>
       <c r="Q41" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543691</v>
       </c>
       <c r="R41" t="n">
         <v>30.63040377336125</v>
@@ -34205,13 +34205,13 @@
         <v>2.519737237630299</v>
       </c>
       <c r="I42" t="n">
-        <v>8.982714493822819</v>
+        <v>8.982714493822817</v>
       </c>
       <c r="J42" t="n">
         <v>24.6492551479538</v>
       </c>
       <c r="K42" t="n">
-        <v>42.12950312344901</v>
+        <v>42.129503123449</v>
       </c>
       <c r="L42" t="n">
         <v>56.64831605308262</v>
@@ -34220,16 +34220,16 @@
         <v>66.10591290549606</v>
       </c>
       <c r="N42" t="n">
-        <v>67.85553971582156</v>
+        <v>67.85553971582155</v>
       </c>
       <c r="O42" t="n">
         <v>62.07456218425558</v>
       </c>
       <c r="P42" t="n">
-        <v>49.82030874293731</v>
+        <v>49.8203087429373</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270309</v>
       </c>
       <c r="R42" t="n">
         <v>16.19863775472049</v>
@@ -34284,10 +34284,10 @@
         <v>1.944700942143937</v>
       </c>
       <c r="I43" t="n">
-        <v>6.577781918826321</v>
+        <v>6.57778191882632</v>
       </c>
       <c r="J43" t="n">
-        <v>15.4641505389094</v>
+        <v>15.46415053890939</v>
       </c>
       <c r="K43" t="n">
         <v>25.41234973476431</v>
@@ -34296,10 +34296,10 @@
         <v>32.51905849470545</v>
       </c>
       <c r="M43" t="n">
-        <v>34.28678767422074</v>
+        <v>34.28678767422073</v>
       </c>
       <c r="N43" t="n">
-        <v>33.47152449806636</v>
+        <v>33.47152449806635</v>
       </c>
       <c r="O43" t="n">
         <v>30.91637039719215</v>
@@ -34308,7 +34308,7 @@
         <v>26.45429584282506</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.31558320867873</v>
+        <v>18.31558320867872</v>
       </c>
       <c r="R43" t="n">
         <v>9.834857729901742</v>
@@ -34317,7 +34317,7 @@
         <v>3.811852460214646</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209095</v>
       </c>
       <c r="U43" t="n">
         <v>0.01193068062664993</v>
@@ -34366,16 +34366,16 @@
         <v>18.79893564917533</v>
       </c>
       <c r="J44" t="n">
-        <v>41.3860622412086</v>
+        <v>41.38606224120859</v>
       </c>
       <c r="K44" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967863</v>
       </c>
       <c r="L44" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661201</v>
       </c>
       <c r="M44" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297402</v>
       </c>
       <c r="N44" t="n">
         <v>87.00709643269505</v>
@@ -34384,10 +34384,10 @@
         <v>82.15833393061381</v>
       </c>
       <c r="P44" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954471</v>
       </c>
       <c r="Q44" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543691</v>
       </c>
       <c r="R44" t="n">
         <v>30.63040377336125</v>
@@ -34442,13 +34442,13 @@
         <v>2.519737237630299</v>
       </c>
       <c r="I45" t="n">
-        <v>8.982714493822819</v>
+        <v>8.982714493822817</v>
       </c>
       <c r="J45" t="n">
         <v>24.6492551479538</v>
       </c>
       <c r="K45" t="n">
-        <v>42.12950312344901</v>
+        <v>42.129503123449</v>
       </c>
       <c r="L45" t="n">
         <v>56.64831605308262</v>
@@ -34457,16 +34457,16 @@
         <v>66.10591290549606</v>
       </c>
       <c r="N45" t="n">
-        <v>67.85553971582156</v>
+        <v>67.85553971582155</v>
       </c>
       <c r="O45" t="n">
         <v>62.07456218425558</v>
       </c>
       <c r="P45" t="n">
-        <v>49.82030874293731</v>
+        <v>49.8203087429373</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270309</v>
       </c>
       <c r="R45" t="n">
         <v>16.19863775472049</v>
@@ -34521,10 +34521,10 @@
         <v>1.944700942143937</v>
       </c>
       <c r="I46" t="n">
-        <v>6.577781918826321</v>
+        <v>6.57778191882632</v>
       </c>
       <c r="J46" t="n">
-        <v>15.4641505389094</v>
+        <v>15.46415053890939</v>
       </c>
       <c r="K46" t="n">
         <v>25.41234973476431</v>
@@ -34533,10 +34533,10 @@
         <v>32.51905849470545</v>
       </c>
       <c r="M46" t="n">
-        <v>34.28678767422074</v>
+        <v>34.28678767422073</v>
       </c>
       <c r="N46" t="n">
-        <v>33.47152449806636</v>
+        <v>33.47152449806635</v>
       </c>
       <c r="O46" t="n">
         <v>30.91637039719215</v>
@@ -34545,7 +34545,7 @@
         <v>26.45429584282506</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.31558320867873</v>
+        <v>18.31558320867872</v>
       </c>
       <c r="R46" t="n">
         <v>9.834857729901742</v>
@@ -34554,7 +34554,7 @@
         <v>3.811852460214646</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209095</v>
       </c>
       <c r="U46" t="n">
         <v>0.01193068062664993</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M8" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="N8" t="n">
-        <v>135.7293992974318</v>
+        <v>34.85926832931634</v>
       </c>
       <c r="O8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>130.2453831642022</v>
-      </c>
-      <c r="O9" t="n">
-        <v>135.7293992974318</v>
       </c>
       <c r="P9" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>114.1118645369718</v>
+        <v>114.1118645369719</v>
       </c>
       <c r="K11" t="n">
-        <v>304.5930114381459</v>
+        <v>304.593011438146</v>
       </c>
       <c r="L11" t="n">
-        <v>428.3493190890828</v>
+        <v>428.3493190890829</v>
       </c>
       <c r="M11" t="n">
-        <v>482.832927686497</v>
+        <v>482.8329276864972</v>
       </c>
       <c r="N11" t="n">
-        <v>469.159983996044</v>
+        <v>469.1599839960442</v>
       </c>
       <c r="O11" t="n">
-        <v>390.243772792062</v>
+        <v>390.2437727920622</v>
       </c>
       <c r="P11" t="n">
-        <v>300.5817487813155</v>
+        <v>300.5817487813156</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.0434927503226</v>
+        <v>148.0434927503227</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>85.51202942381852</v>
+        <v>85.51202942381857</v>
       </c>
       <c r="K12" t="n">
-        <v>273.9381420731344</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3.874920249708249</v>
+        <v>426.1653313764317</v>
       </c>
       <c r="M12" t="n">
-        <v>556.0385932188559</v>
+        <v>556.038593218856</v>
       </c>
       <c r="N12" t="n">
-        <v>584.2854852947326</v>
+        <v>584.2854852947327</v>
       </c>
       <c r="O12" t="n">
-        <v>458.2361286328926</v>
+        <v>458.2361286328928</v>
       </c>
       <c r="P12" t="n">
-        <v>354.9677019507121</v>
+        <v>354.9677019507122</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.6688396344143</v>
+        <v>44.3165705808244</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.19216003346911</v>
+        <v>39.19216003346905</v>
       </c>
       <c r="K13" t="n">
-        <v>142.5406494137813</v>
+        <v>142.5406494137812</v>
       </c>
       <c r="L13" t="n">
         <v>217.3270467147487</v>
       </c>
       <c r="M13" t="n">
-        <v>236.6568230935997</v>
+        <v>236.6568230935996</v>
       </c>
       <c r="N13" t="n">
         <v>236.2747272123934</v>
       </c>
       <c r="O13" t="n">
-        <v>213.5592748752458</v>
+        <v>213.5592748752457</v>
       </c>
       <c r="P13" t="n">
-        <v>173.2435005556748</v>
+        <v>173.2435005556747</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.34829097035959</v>
+        <v>63.34829097035953</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>114.1118645369718</v>
+        <v>114.1118645369719</v>
       </c>
       <c r="K14" t="n">
-        <v>304.5930114381459</v>
+        <v>304.593011438146</v>
       </c>
       <c r="L14" t="n">
-        <v>428.3493190890828</v>
+        <v>428.3493190890829</v>
       </c>
       <c r="M14" t="n">
-        <v>482.832927686497</v>
+        <v>482.8329276864972</v>
       </c>
       <c r="N14" t="n">
-        <v>469.159983996044</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O14" t="n">
-        <v>390.243772792062</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P14" t="n">
-        <v>300.5817487813155</v>
+        <v>300.5817487813156</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.0434927503226</v>
+        <v>148.0434927503228</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>85.51202942381852</v>
+        <v>85.51202942381859</v>
       </c>
       <c r="K15" t="n">
-        <v>273.9381420731344</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L15" t="n">
-        <v>426.1653313764316</v>
+        <v>426.1653313764318</v>
       </c>
       <c r="M15" t="n">
-        <v>133.7481820921326</v>
+        <v>556.0385932188561</v>
       </c>
       <c r="N15" t="n">
-        <v>584.2854852947326</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O15" t="n">
-        <v>458.2361286328926</v>
+        <v>458.2361286328928</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9677019507121</v>
+        <v>125.3461304584015</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.6688396344143</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.19216003346906</v>
+        <v>39.19216003346904</v>
       </c>
       <c r="K16" t="n">
-        <v>142.5406494137812</v>
+        <v>142.5406494137813</v>
       </c>
       <c r="L16" t="n">
         <v>217.3270467147487</v>
@@ -35823,7 +35823,7 @@
         <v>173.2435005556747</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.34829097035953</v>
+        <v>63.34829097035952</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>114.1118645369731</v>
+        <v>114.1118645369719</v>
       </c>
       <c r="K17" t="n">
-        <v>304.5930114381459</v>
+        <v>304.593011438146</v>
       </c>
       <c r="L17" t="n">
-        <v>428.3493190890828</v>
+        <v>428.3493190890829</v>
       </c>
       <c r="M17" t="n">
-        <v>482.832927686497</v>
+        <v>482.8329276864968</v>
       </c>
       <c r="N17" t="n">
-        <v>469.159983996044</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O17" t="n">
-        <v>390.243772792062</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P17" t="n">
-        <v>300.5817487813155</v>
+        <v>300.5817487813156</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.0434927503226</v>
+        <v>148.0434927503228</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>85.51202942381852</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>273.9381420731344</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L18" t="n">
-        <v>426.1653313764316</v>
+        <v>426.1653313764318</v>
       </c>
       <c r="M18" t="n">
-        <v>326.4170217265471</v>
+        <v>556.0385932188561</v>
       </c>
       <c r="N18" t="n">
-        <v>584.2854852947326</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O18" t="n">
-        <v>458.2361286328926</v>
+        <v>121.4577469299863</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9677019507121</v>
+        <v>354.9677019507123</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>59.35597371925253</v>
+        <v>59.3559737192526</v>
       </c>
       <c r="L19" t="n">
-        <v>134.14237102022</v>
+        <v>134.1423710202201</v>
       </c>
       <c r="M19" t="n">
-        <v>153.4721473990709</v>
+        <v>153.472147399071</v>
       </c>
       <c r="N19" t="n">
-        <v>153.0900515178646</v>
+        <v>153.0900515178647</v>
       </c>
       <c r="O19" t="n">
-        <v>130.374599180717</v>
+        <v>130.3745991807171</v>
       </c>
       <c r="P19" t="n">
-        <v>90.05882486114599</v>
+        <v>90.05882486114606</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36130,16 +36130,16 @@
         <v>482.8329276864972</v>
       </c>
       <c r="N20" t="n">
-        <v>469.1599839960442</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O20" t="n">
-        <v>390.2437727920622</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P20" t="n">
         <v>300.5817487813156</v>
       </c>
       <c r="Q20" t="n">
-        <v>148.0434927503227</v>
+        <v>148.0434927503228</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>85.51202942381857</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>206.6154328971221</v>
+        <v>129.8286000046424</v>
       </c>
       <c r="L21" t="n">
-        <v>426.1653313764317</v>
+        <v>426.1653313764318</v>
       </c>
       <c r="M21" t="n">
-        <v>556.038593218856</v>
+        <v>556.0385932188561</v>
       </c>
       <c r="N21" t="n">
-        <v>584.2854852947327</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O21" t="n">
         <v>458.2361286328928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>354.9677019507123</v>
       </c>
       <c r="Q21" t="n">
-        <v>192.6688396344144</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>59.35597371925259</v>
+        <v>59.3559737192526</v>
       </c>
       <c r="L22" t="n">
         <v>134.1423710202201</v>
       </c>
       <c r="M22" t="n">
-        <v>153.4721473990709</v>
+        <v>153.472147399071</v>
       </c>
       <c r="N22" t="n">
         <v>153.0900515178647</v>
@@ -36294,7 +36294,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P22" t="n">
-        <v>90.05882486114605</v>
+        <v>90.05882486114606</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>114.1118645369719</v>
+        <v>114.1118645369701</v>
       </c>
       <c r="K23" t="n">
         <v>304.593011438146</v>
@@ -36367,16 +36367,16 @@
         <v>482.8329276864972</v>
       </c>
       <c r="N23" t="n">
-        <v>469.1599839960442</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O23" t="n">
-        <v>390.2437727920622</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P23" t="n">
         <v>300.5817487813156</v>
       </c>
       <c r="Q23" t="n">
-        <v>148.0434927503229</v>
+        <v>148.0434927503228</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>129.8286000046425</v>
+        <v>129.8286000046424</v>
       </c>
       <c r="L24" t="n">
-        <v>426.1653313764317</v>
+        <v>426.1653313764318</v>
       </c>
       <c r="M24" t="n">
-        <v>556.038593218856</v>
+        <v>556.0385932188561</v>
       </c>
       <c r="N24" t="n">
-        <v>584.2854852947327</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O24" t="n">
         <v>458.2361286328928</v>
       </c>
       <c r="P24" t="n">
-        <v>354.9677019507122</v>
+        <v>354.9677019507123</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>59.35597371925259</v>
+        <v>59.3559737192526</v>
       </c>
       <c r="L25" t="n">
         <v>134.1423710202201</v>
       </c>
       <c r="M25" t="n">
-        <v>153.4721473990709</v>
+        <v>153.472147399071</v>
       </c>
       <c r="N25" t="n">
         <v>153.0900515178647</v>
@@ -36531,7 +36531,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P25" t="n">
-        <v>90.05882486114605</v>
+        <v>90.05882486114606</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>217.6489297778838</v>
       </c>
       <c r="K26" t="n">
-        <v>408.1300766790579</v>
+        <v>408.130076679058</v>
       </c>
       <c r="L26" t="n">
-        <v>470.0782384971242</v>
+        <v>531.8863843299948</v>
       </c>
       <c r="M26" t="n">
         <v>586.369992927409</v>
       </c>
       <c r="N26" t="n">
-        <v>572.6970492369561</v>
+        <v>572.6970492369562</v>
       </c>
       <c r="O26" t="n">
-        <v>493.7808380329741</v>
+        <v>431.9726922001025</v>
       </c>
       <c r="P26" t="n">
         <v>404.1188140222275</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.5805579912346</v>
+        <v>251.5805579912347</v>
       </c>
       <c r="R26" t="n">
-        <v>44.43556537516791</v>
+        <v>44.43556537516797</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>85.51202942381857</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>273.9381420731345</v>
+        <v>129.8286000046422</v>
       </c>
       <c r="L27" t="n">
-        <v>426.1653313764317</v>
+        <v>426.1653313764318</v>
       </c>
       <c r="M27" t="n">
-        <v>556.038593218856</v>
+        <v>556.0385932188561</v>
       </c>
       <c r="N27" t="n">
-        <v>161.9950741680078</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O27" t="n">
         <v>458.2361286328928</v>
       </c>
       <c r="P27" t="n">
-        <v>354.9677019507122</v>
+        <v>354.9677019507123</v>
       </c>
       <c r="Q27" t="n">
-        <v>192.6688396344144</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.54454957985226</v>
+        <v>59.54454957985229</v>
       </c>
       <c r="K28" t="n">
         <v>162.8930389601645</v>
       </c>
       <c r="L28" t="n">
-        <v>237.6794362611332</v>
+        <v>237.679436261132</v>
       </c>
       <c r="M28" t="n">
-        <v>257.0092126399828</v>
+        <v>257.0092126399829</v>
       </c>
       <c r="N28" t="n">
-        <v>256.6271167587765</v>
+        <v>256.6271167587766</v>
       </c>
       <c r="O28" t="n">
         <v>233.911664421629</v>
       </c>
       <c r="P28" t="n">
-        <v>193.5958901020579</v>
+        <v>193.595890102058</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.70068051674274</v>
+        <v>83.70068051674278</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>217.6489297778838</v>
       </c>
       <c r="K29" t="n">
-        <v>408.130076679058</v>
+        <v>346.3219308461854</v>
       </c>
       <c r="L29" t="n">
-        <v>531.8863843299948</v>
+        <v>531.8863843299949</v>
       </c>
       <c r="M29" t="n">
-        <v>524.5618470945378</v>
+        <v>586.3699929274092</v>
       </c>
       <c r="N29" t="n">
         <v>572.6970492369562</v>
@@ -36847,13 +36847,13 @@
         <v>493.7808380329742</v>
       </c>
       <c r="P29" t="n">
-        <v>404.1188140222275</v>
+        <v>404.1188140222276</v>
       </c>
       <c r="Q29" t="n">
         <v>251.5805579912347</v>
       </c>
       <c r="R29" t="n">
-        <v>44.43556537516798</v>
+        <v>44.43556537516804</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>85.51202942381859</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L30" t="n">
         <v>426.1653313764318</v>
@@ -36920,7 +36920,7 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N30" t="n">
-        <v>584.2854852947328</v>
+        <v>161.9950741680076</v>
       </c>
       <c r="O30" t="n">
         <v>458.2361286328928</v>
@@ -36929,7 +36929,7 @@
         <v>354.9677019507123</v>
       </c>
       <c r="Q30" t="n">
-        <v>129.8286000046422</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.54454957985231</v>
+        <v>59.54454957985237</v>
       </c>
       <c r="K31" t="n">
-        <v>162.8930389601645</v>
+        <v>162.8930389601646</v>
       </c>
       <c r="L31" t="n">
-        <v>237.679436261132</v>
+        <v>237.6794362611321</v>
       </c>
       <c r="M31" t="n">
         <v>257.0092126399829</v>
       </c>
       <c r="N31" t="n">
-        <v>256.6271167587766</v>
+        <v>256.6271167587767</v>
       </c>
       <c r="O31" t="n">
         <v>233.911664421629</v>
@@ -37008,7 +37008,7 @@
         <v>193.595890102058</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.70068051674279</v>
+        <v>83.70068051674284</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>114.1118645369719</v>
+        <v>248.9492495229222</v>
       </c>
       <c r="K32" t="n">
-        <v>304.593011438146</v>
+        <v>443.2459868652894</v>
       </c>
       <c r="L32" t="n">
-        <v>428.349319089083</v>
+        <v>428.3493190890829</v>
       </c>
       <c r="M32" t="n">
-        <v>617.6703126724485</v>
+        <v>482.8329276864972</v>
       </c>
       <c r="N32" t="n">
-        <v>607.8129594231877</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O32" t="n">
         <v>390.2437727920623</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>85.51202942381859</v>
       </c>
       <c r="K33" t="n">
         <v>273.9381420731345</v>
@@ -37154,13 +37154,13 @@
         <v>426.1653313764318</v>
       </c>
       <c r="M33" t="n">
-        <v>556.0385932188561</v>
+        <v>133.7481820921312</v>
       </c>
       <c r="N33" t="n">
         <v>584.2854852947328</v>
       </c>
       <c r="O33" t="n">
-        <v>121.4577469299863</v>
+        <v>458.2361286328928</v>
       </c>
       <c r="P33" t="n">
         <v>354.9677019507123</v>
@@ -37233,22 +37233,22 @@
         <v>134.1423710202201</v>
       </c>
       <c r="M34" t="n">
-        <v>292.1251228262144</v>
+        <v>153.472147399071</v>
       </c>
       <c r="N34" t="n">
         <v>153.0900515178647</v>
       </c>
       <c r="O34" t="n">
-        <v>185.9172832491113</v>
+        <v>205.2923983880019</v>
       </c>
       <c r="P34" t="n">
         <v>90.05882486114606</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>118.8165907029742</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.4612695852795383</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>304.593011438146</v>
       </c>
       <c r="L35" t="n">
-        <v>428.349319089083</v>
+        <v>428.3493190890829</v>
       </c>
       <c r="M35" t="n">
         <v>482.8329276864972</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>85.5120294238186</v>
+        <v>85.51202942381859</v>
       </c>
       <c r="K36" t="n">
         <v>273.9381420731345</v>
@@ -37546,13 +37546,13 @@
         <v>304.593011438146</v>
       </c>
       <c r="L38" t="n">
-        <v>428.349319089083</v>
+        <v>428.3493190890829</v>
       </c>
       <c r="M38" t="n">
         <v>482.8329276864972</v>
       </c>
       <c r="N38" t="n">
-        <v>469.1599839960443</v>
+        <v>469.1599839960438</v>
       </c>
       <c r="O38" t="n">
         <v>390.2437727920623</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>85.5120294238186</v>
+        <v>85.51202942381859</v>
       </c>
       <c r="K39" t="n">
-        <v>273.9381420731345</v>
+        <v>206.6154328971219</v>
       </c>
       <c r="L39" t="n">
         <v>426.1653313764318</v>
       </c>
       <c r="M39" t="n">
-        <v>133.7481820921311</v>
+        <v>556.0385932188561</v>
       </c>
       <c r="N39" t="n">
         <v>584.2854852947328</v>
@@ -37637,7 +37637,7 @@
         <v>458.2361286328928</v>
       </c>
       <c r="P39" t="n">
-        <v>354.9677019507123</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>192.6688396344144</v>
@@ -37783,7 +37783,7 @@
         <v>304.593011438146</v>
       </c>
       <c r="L41" t="n">
-        <v>428.349319089083</v>
+        <v>428.3493190890829</v>
       </c>
       <c r="M41" t="n">
         <v>482.8329276864972</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>85.5120294238186</v>
+        <v>85.51202942381859</v>
       </c>
       <c r="K42" t="n">
         <v>273.9381420731345</v>
@@ -37868,7 +37868,7 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N42" t="n">
-        <v>161.9950741680076</v>
+        <v>354.6639138024219</v>
       </c>
       <c r="O42" t="n">
         <v>458.2361286328928</v>
@@ -37877,7 +37877,7 @@
         <v>354.9677019507123</v>
       </c>
       <c r="Q42" t="n">
-        <v>192.6688396344144</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>304.593011438146</v>
       </c>
       <c r="L44" t="n">
-        <v>428.349319089083</v>
+        <v>428.3493190890829</v>
       </c>
       <c r="M44" t="n">
         <v>482.8329276864972</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>273.9381420731345</v>
+        <v>129.8286000046424</v>
       </c>
       <c r="L45" t="n">
         <v>426.1653313764318</v>
@@ -38105,7 +38105,7 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N45" t="n">
-        <v>247.5071035918263</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O45" t="n">
         <v>458.2361286328928</v>
@@ -38114,7 +38114,7 @@
         <v>354.9677019507123</v>
       </c>
       <c r="Q45" t="n">
-        <v>192.6688396344144</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
